--- a/test_case/Authentication/login/login_performance_testing.xlsx
+++ b/test_case/Authentication/login/login_performance_testing.xlsx
@@ -48,6 +48,9 @@
     <t>Comments</t>
   </si>
   <si>
+    <t>TC-LP-046</t>
+  </si>
+  <si>
     <t>Login URL accessible</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
   </si>
   <si>
     <t>Page should load within 3 seconds</t>
+  </si>
+  <si>
+    <t>TC-LP-047</t>
   </si>
   <si>
     <t>Login page loaded</t>
@@ -71,6 +77,9 @@
     <t>User should be redirected within 2 seconds</t>
   </si>
   <si>
+    <t>TC-LP-048</t>
+  </si>
+  <si>
     <t>Network speed normal</t>
   </si>
   <si>
@@ -82,6 +91,9 @@
   </si>
   <si>
     <t>Page loads within acceptable time (5 seconds)</t>
+  </si>
+  <si>
+    <t>TC-LP-049</t>
   </si>
   <si>
     <t>Network speed slow</t>
@@ -97,6 +109,9 @@
     <t>Page loads with degraded performance but usable</t>
   </si>
   <si>
+    <t>TC-LP-050</t>
+  </si>
+  <si>
     <t>Test server response under normal load</t>
   </si>
   <si>
@@ -104,6 +119,9 @@
   </si>
   <si>
     <t>Server should respond without timeout</t>
+  </si>
+  <si>
+    <t>TC-LP-053</t>
   </si>
   <si>
     <t>Test login with large payload</t>
@@ -114,6 +132,9 @@
   </si>
   <si>
     <t>Server should handle gracefully without slowdown or crash</t>
+  </si>
+  <si>
+    <t>TC-LP-054</t>
   </si>
   <si>
     <t>Valid credentials</t>
@@ -129,6 +150,9 @@
     <t>Login should complete quickly without delay</t>
   </si>
   <si>
+    <t>TC-LP-056</t>
+  </si>
+  <si>
     <t>Load testing tool ready</t>
   </si>
   <si>
@@ -142,6 +166,9 @@
     <t>Response time should degrade gracefully; failures minimal</t>
   </si>
   <si>
+    <t>TC-LP-058</t>
+  </si>
+  <si>
     <t>Test login performance on mobile devices</t>
   </si>
   <si>
@@ -151,6 +178,9 @@
   </si>
   <si>
     <t>Login response time similar or acceptable compared to desktop</t>
+  </si>
+  <si>
+    <t>TC-LP-059</t>
   </si>
   <si>
     <t>Measure time taken to clear session and logout</t>
@@ -179,7 +209,6 @@
         <sz val="10"/>
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -199,7 +228,6 @@
         <sz val="10"/>
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> "</t>
     </r>
@@ -209,7 +237,6 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>https://ai-quizwhiz.zluck.com/login</t>
     </r>
@@ -218,42 +245,11 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>"
  3. Measure time until page fully loads</t>
     </r>
-  </si>
-  <si>
-    <t>TC-LP-024</t>
-  </si>
-  <si>
-    <t>TC-LP-025</t>
-  </si>
-  <si>
-    <t>TC-LP-026</t>
-  </si>
-  <si>
-    <t>TC-LP-027</t>
-  </si>
-  <si>
-    <t>TC-LP-028</t>
-  </si>
-  <si>
-    <t>TC-LP-029</t>
-  </si>
-  <si>
-    <t>TC-LP-030</t>
-  </si>
-  <si>
-    <t>TC-LP-031</t>
-  </si>
-  <si>
-    <t>TC-LP-032</t>
-  </si>
-  <si>
-    <t>TC-LP-033</t>
   </si>
 </sst>
 </file>
@@ -270,26 +266,22 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -297,12 +289,16 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -319,13 +315,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -472,23 +461,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -709,8 +698,8 @@
   </sheetPr>
   <dimension ref="A1:AA995"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -718,22 +707,22 @@
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="4" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="5" width="38.140625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="38.140625" style="19" customWidth="1"/>
     <col min="6" max="6" width="30.5703125" customWidth="1"/>
     <col min="8" max="8" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="18"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -755,14 +744,14 @@
       <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -830,220 +819,220 @@
     </row>
     <row r="4" spans="1:27" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="B4" s="8">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>44</v>
+        <v>11</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:27" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>46</v>
+      <c r="A5" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="B5" s="8">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:27" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>47</v>
+      <c r="A6" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="B6" s="8">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:27" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>48</v>
+      <c r="A7" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="B7" s="8">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>26</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:27" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>49</v>
+      <c r="A8" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="B8" s="8">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:27" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>50</v>
+      <c r="A9" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="B9" s="8">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:27" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>51</v>
+      <c r="A10" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="B10" s="8">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>52</v>
+      <c r="A11" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="B11" s="8">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:27" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>53</v>
+      <c r="A12" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="B12" s="8">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>39</v>
+        <v>47</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>48</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:27" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
-        <v>54</v>
+      <c r="A13" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="B13" s="8">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>42</v>
+        <v>51</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -1051,4912 +1040,4912 @@
     <row r="14" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B14" s="11"/>
       <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
+      <c r="E14" s="18"/>
     </row>
     <row r="15" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B15" s="11"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
+      <c r="E15" s="18"/>
     </row>
     <row r="16" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B16" s="11"/>
       <c r="D16" s="12"/>
-      <c r="E16" s="13"/>
+      <c r="E16" s="18"/>
     </row>
     <row r="17" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B17" s="11"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
+      <c r="E17" s="18"/>
     </row>
     <row r="18" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B18" s="11"/>
       <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
+      <c r="E18" s="18"/>
     </row>
     <row r="19" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B19" s="11"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
+      <c r="E19" s="18"/>
     </row>
     <row r="20" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B20" s="11"/>
       <c r="D20" s="12"/>
-      <c r="E20" s="13"/>
+      <c r="E20" s="18"/>
     </row>
     <row r="21" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B21" s="11"/>
       <c r="D21" s="12"/>
-      <c r="E21" s="13"/>
+      <c r="E21" s="18"/>
     </row>
     <row r="22" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B22" s="11"/>
       <c r="D22" s="12"/>
-      <c r="E22" s="13"/>
+      <c r="E22" s="18"/>
     </row>
     <row r="23" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B23" s="11"/>
       <c r="D23" s="12"/>
-      <c r="E23" s="13"/>
+      <c r="E23" s="18"/>
     </row>
     <row r="24" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B24" s="11"/>
       <c r="D24" s="12"/>
-      <c r="E24" s="13"/>
+      <c r="E24" s="18"/>
     </row>
     <row r="25" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B25" s="11"/>
       <c r="D25" s="12"/>
-      <c r="E25" s="13"/>
+      <c r="E25" s="18"/>
     </row>
     <row r="26" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B26" s="11"/>
       <c r="D26" s="12"/>
-      <c r="E26" s="13"/>
+      <c r="E26" s="18"/>
     </row>
     <row r="27" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B27" s="11"/>
       <c r="D27" s="12"/>
-      <c r="E27" s="13"/>
+      <c r="E27" s="18"/>
     </row>
     <row r="28" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B28" s="11"/>
       <c r="D28" s="12"/>
-      <c r="E28" s="13"/>
+      <c r="E28" s="18"/>
     </row>
     <row r="29" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B29" s="11"/>
       <c r="D29" s="12"/>
-      <c r="E29" s="13"/>
+      <c r="E29" s="18"/>
     </row>
     <row r="30" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B30" s="11"/>
       <c r="D30" s="12"/>
-      <c r="E30" s="13"/>
+      <c r="E30" s="18"/>
     </row>
     <row r="31" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B31" s="11"/>
       <c r="D31" s="12"/>
-      <c r="E31" s="13"/>
+      <c r="E31" s="18"/>
     </row>
     <row r="32" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B32" s="11"/>
       <c r="D32" s="12"/>
-      <c r="E32" s="13"/>
+      <c r="E32" s="18"/>
     </row>
     <row r="33" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="11"/>
       <c r="D33" s="12"/>
-      <c r="E33" s="13"/>
+      <c r="E33" s="18"/>
     </row>
     <row r="34" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B34" s="11"/>
       <c r="D34" s="12"/>
-      <c r="E34" s="13"/>
+      <c r="E34" s="18"/>
     </row>
     <row r="35" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B35" s="11"/>
       <c r="D35" s="12"/>
-      <c r="E35" s="13"/>
+      <c r="E35" s="18"/>
     </row>
     <row r="36" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B36" s="11"/>
       <c r="D36" s="12"/>
-      <c r="E36" s="13"/>
+      <c r="E36" s="18"/>
     </row>
     <row r="37" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B37" s="11"/>
       <c r="D37" s="12"/>
-      <c r="E37" s="13"/>
+      <c r="E37" s="18"/>
     </row>
     <row r="38" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B38" s="11"/>
       <c r="D38" s="12"/>
-      <c r="E38" s="13"/>
+      <c r="E38" s="18"/>
     </row>
     <row r="39" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B39" s="11"/>
       <c r="D39" s="12"/>
-      <c r="E39" s="13"/>
+      <c r="E39" s="18"/>
     </row>
     <row r="40" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B40" s="11"/>
       <c r="D40" s="12"/>
-      <c r="E40" s="13"/>
+      <c r="E40" s="18"/>
     </row>
     <row r="41" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B41" s="11"/>
       <c r="D41" s="12"/>
-      <c r="E41" s="13"/>
+      <c r="E41" s="18"/>
     </row>
     <row r="42" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B42" s="11"/>
       <c r="D42" s="12"/>
-      <c r="E42" s="13"/>
+      <c r="E42" s="18"/>
     </row>
     <row r="43" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B43" s="11"/>
       <c r="D43" s="12"/>
-      <c r="E43" s="13"/>
+      <c r="E43" s="18"/>
     </row>
     <row r="44" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B44" s="11"/>
       <c r="D44" s="12"/>
-      <c r="E44" s="13"/>
+      <c r="E44" s="18"/>
     </row>
     <row r="45" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B45" s="11"/>
       <c r="D45" s="12"/>
-      <c r="E45" s="13"/>
+      <c r="E45" s="18"/>
     </row>
     <row r="46" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B46" s="11"/>
       <c r="D46" s="12"/>
-      <c r="E46" s="13"/>
+      <c r="E46" s="18"/>
     </row>
     <row r="47" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B47" s="11"/>
       <c r="D47" s="12"/>
-      <c r="E47" s="13"/>
+      <c r="E47" s="18"/>
     </row>
     <row r="48" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B48" s="11"/>
       <c r="D48" s="12"/>
-      <c r="E48" s="13"/>
+      <c r="E48" s="18"/>
     </row>
     <row r="49" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B49" s="11"/>
       <c r="D49" s="12"/>
-      <c r="E49" s="13"/>
+      <c r="E49" s="18"/>
     </row>
     <row r="50" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B50" s="11"/>
       <c r="D50" s="12"/>
-      <c r="E50" s="13"/>
+      <c r="E50" s="18"/>
     </row>
     <row r="51" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B51" s="11"/>
       <c r="D51" s="12"/>
-      <c r="E51" s="13"/>
+      <c r="E51" s="18"/>
     </row>
     <row r="52" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B52" s="11"/>
       <c r="D52" s="12"/>
-      <c r="E52" s="13"/>
+      <c r="E52" s="18"/>
     </row>
     <row r="53" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B53" s="11"/>
       <c r="D53" s="12"/>
-      <c r="E53" s="13"/>
+      <c r="E53" s="18"/>
     </row>
     <row r="54" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B54" s="11"/>
       <c r="D54" s="12"/>
-      <c r="E54" s="13"/>
+      <c r="E54" s="18"/>
     </row>
     <row r="55" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B55" s="11"/>
       <c r="D55" s="12"/>
-      <c r="E55" s="13"/>
+      <c r="E55" s="18"/>
     </row>
     <row r="56" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B56" s="11"/>
       <c r="D56" s="12"/>
-      <c r="E56" s="13"/>
+      <c r="E56" s="18"/>
     </row>
     <row r="57" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B57" s="11"/>
       <c r="D57" s="12"/>
-      <c r="E57" s="13"/>
+      <c r="E57" s="18"/>
     </row>
     <row r="58" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B58" s="11"/>
       <c r="D58" s="12"/>
-      <c r="E58" s="13"/>
+      <c r="E58" s="18"/>
     </row>
     <row r="59" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B59" s="11"/>
       <c r="D59" s="12"/>
-      <c r="E59" s="13"/>
+      <c r="E59" s="18"/>
     </row>
     <row r="60" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B60" s="11"/>
       <c r="D60" s="12"/>
-      <c r="E60" s="13"/>
+      <c r="E60" s="18"/>
     </row>
     <row r="61" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B61" s="11"/>
       <c r="D61" s="12"/>
-      <c r="E61" s="13"/>
+      <c r="E61" s="18"/>
     </row>
     <row r="62" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B62" s="11"/>
       <c r="D62" s="12"/>
-      <c r="E62" s="13"/>
+      <c r="E62" s="18"/>
     </row>
     <row r="63" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B63" s="11"/>
       <c r="D63" s="12"/>
-      <c r="E63" s="13"/>
+      <c r="E63" s="18"/>
     </row>
     <row r="64" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B64" s="11"/>
       <c r="D64" s="12"/>
-      <c r="E64" s="13"/>
+      <c r="E64" s="18"/>
     </row>
     <row r="65" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B65" s="11"/>
       <c r="D65" s="12"/>
-      <c r="E65" s="13"/>
+      <c r="E65" s="18"/>
     </row>
     <row r="66" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B66" s="11"/>
       <c r="D66" s="12"/>
-      <c r="E66" s="13"/>
+      <c r="E66" s="18"/>
     </row>
     <row r="67" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B67" s="11"/>
       <c r="D67" s="12"/>
-      <c r="E67" s="13"/>
+      <c r="E67" s="18"/>
     </row>
     <row r="68" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B68" s="11"/>
       <c r="D68" s="12"/>
-      <c r="E68" s="13"/>
+      <c r="E68" s="18"/>
     </row>
     <row r="69" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B69" s="11"/>
       <c r="D69" s="12"/>
-      <c r="E69" s="13"/>
+      <c r="E69" s="18"/>
     </row>
     <row r="70" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B70" s="11"/>
       <c r="D70" s="12"/>
-      <c r="E70" s="13"/>
+      <c r="E70" s="18"/>
     </row>
     <row r="71" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B71" s="11"/>
       <c r="D71" s="12"/>
-      <c r="E71" s="13"/>
+      <c r="E71" s="18"/>
     </row>
     <row r="72" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B72" s="11"/>
       <c r="D72" s="12"/>
-      <c r="E72" s="13"/>
+      <c r="E72" s="18"/>
     </row>
     <row r="73" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B73" s="11"/>
       <c r="D73" s="12"/>
-      <c r="E73" s="13"/>
+      <c r="E73" s="18"/>
     </row>
     <row r="74" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B74" s="11"/>
       <c r="D74" s="12"/>
-      <c r="E74" s="13"/>
+      <c r="E74" s="18"/>
     </row>
     <row r="75" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B75" s="11"/>
       <c r="D75" s="12"/>
-      <c r="E75" s="13"/>
+      <c r="E75" s="18"/>
     </row>
     <row r="76" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B76" s="11"/>
       <c r="D76" s="12"/>
-      <c r="E76" s="13"/>
+      <c r="E76" s="18"/>
     </row>
     <row r="77" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B77" s="11"/>
       <c r="D77" s="12"/>
-      <c r="E77" s="13"/>
+      <c r="E77" s="18"/>
     </row>
     <row r="78" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B78" s="11"/>
       <c r="D78" s="12"/>
-      <c r="E78" s="13"/>
+      <c r="E78" s="18"/>
     </row>
     <row r="79" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B79" s="11"/>
       <c r="D79" s="12"/>
-      <c r="E79" s="13"/>
+      <c r="E79" s="18"/>
     </row>
     <row r="80" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B80" s="11"/>
       <c r="D80" s="12"/>
-      <c r="E80" s="13"/>
+      <c r="E80" s="18"/>
     </row>
     <row r="81" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B81" s="11"/>
       <c r="D81" s="12"/>
-      <c r="E81" s="13"/>
+      <c r="E81" s="18"/>
     </row>
     <row r="82" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B82" s="11"/>
       <c r="D82" s="12"/>
-      <c r="E82" s="13"/>
+      <c r="E82" s="18"/>
     </row>
     <row r="83" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B83" s="11"/>
       <c r="D83" s="12"/>
-      <c r="E83" s="13"/>
+      <c r="E83" s="18"/>
     </row>
     <row r="84" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B84" s="11"/>
       <c r="D84" s="12"/>
-      <c r="E84" s="13"/>
+      <c r="E84" s="18"/>
     </row>
     <row r="85" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B85" s="11"/>
       <c r="D85" s="12"/>
-      <c r="E85" s="13"/>
+      <c r="E85" s="18"/>
     </row>
     <row r="86" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B86" s="11"/>
       <c r="D86" s="12"/>
-      <c r="E86" s="13"/>
+      <c r="E86" s="18"/>
     </row>
     <row r="87" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B87" s="11"/>
       <c r="D87" s="12"/>
-      <c r="E87" s="13"/>
+      <c r="E87" s="18"/>
     </row>
     <row r="88" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B88" s="11"/>
       <c r="D88" s="12"/>
-      <c r="E88" s="13"/>
+      <c r="E88" s="18"/>
     </row>
     <row r="89" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B89" s="11"/>
       <c r="D89" s="12"/>
-      <c r="E89" s="13"/>
+      <c r="E89" s="18"/>
     </row>
     <row r="90" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B90" s="11"/>
       <c r="D90" s="12"/>
-      <c r="E90" s="13"/>
+      <c r="E90" s="18"/>
     </row>
     <row r="91" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B91" s="11"/>
       <c r="D91" s="12"/>
-      <c r="E91" s="13"/>
+      <c r="E91" s="18"/>
     </row>
     <row r="92" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B92" s="11"/>
       <c r="D92" s="12"/>
-      <c r="E92" s="13"/>
+      <c r="E92" s="18"/>
     </row>
     <row r="93" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B93" s="11"/>
       <c r="D93" s="12"/>
-      <c r="E93" s="13"/>
+      <c r="E93" s="18"/>
     </row>
     <row r="94" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B94" s="11"/>
       <c r="D94" s="12"/>
-      <c r="E94" s="13"/>
+      <c r="E94" s="18"/>
     </row>
     <row r="95" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B95" s="11"/>
       <c r="D95" s="12"/>
-      <c r="E95" s="13"/>
+      <c r="E95" s="18"/>
     </row>
     <row r="96" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B96" s="11"/>
       <c r="D96" s="12"/>
-      <c r="E96" s="13"/>
+      <c r="E96" s="18"/>
     </row>
     <row r="97" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B97" s="11"/>
       <c r="D97" s="12"/>
-      <c r="E97" s="13"/>
+      <c r="E97" s="18"/>
     </row>
     <row r="98" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B98" s="11"/>
       <c r="D98" s="12"/>
-      <c r="E98" s="13"/>
+      <c r="E98" s="18"/>
     </row>
     <row r="99" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B99" s="11"/>
       <c r="D99" s="12"/>
-      <c r="E99" s="13"/>
+      <c r="E99" s="18"/>
     </row>
     <row r="100" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B100" s="11"/>
       <c r="D100" s="12"/>
-      <c r="E100" s="13"/>
+      <c r="E100" s="18"/>
     </row>
     <row r="101" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B101" s="11"/>
       <c r="D101" s="12"/>
-      <c r="E101" s="13"/>
+      <c r="E101" s="18"/>
     </row>
     <row r="102" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B102" s="11"/>
       <c r="D102" s="12"/>
-      <c r="E102" s="13"/>
+      <c r="E102" s="18"/>
     </row>
     <row r="103" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B103" s="11"/>
       <c r="D103" s="12"/>
-      <c r="E103" s="13"/>
+      <c r="E103" s="18"/>
     </row>
     <row r="104" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B104" s="11"/>
       <c r="D104" s="12"/>
-      <c r="E104" s="13"/>
+      <c r="E104" s="18"/>
     </row>
     <row r="105" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B105" s="11"/>
       <c r="D105" s="12"/>
-      <c r="E105" s="13"/>
+      <c r="E105" s="18"/>
     </row>
     <row r="106" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B106" s="11"/>
       <c r="D106" s="12"/>
-      <c r="E106" s="13"/>
+      <c r="E106" s="18"/>
     </row>
     <row r="107" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B107" s="11"/>
       <c r="D107" s="12"/>
-      <c r="E107" s="13"/>
+      <c r="E107" s="18"/>
     </row>
     <row r="108" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B108" s="11"/>
       <c r="D108" s="12"/>
-      <c r="E108" s="13"/>
+      <c r="E108" s="18"/>
     </row>
     <row r="109" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B109" s="11"/>
       <c r="D109" s="12"/>
-      <c r="E109" s="13"/>
+      <c r="E109" s="18"/>
     </row>
     <row r="110" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B110" s="11"/>
       <c r="D110" s="12"/>
-      <c r="E110" s="13"/>
+      <c r="E110" s="18"/>
     </row>
     <row r="111" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B111" s="11"/>
       <c r="D111" s="12"/>
-      <c r="E111" s="13"/>
+      <c r="E111" s="18"/>
     </row>
     <row r="112" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B112" s="11"/>
       <c r="D112" s="12"/>
-      <c r="E112" s="13"/>
+      <c r="E112" s="18"/>
     </row>
     <row r="113" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B113" s="11"/>
       <c r="D113" s="12"/>
-      <c r="E113" s="13"/>
+      <c r="E113" s="18"/>
     </row>
     <row r="114" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B114" s="11"/>
       <c r="D114" s="12"/>
-      <c r="E114" s="13"/>
+      <c r="E114" s="18"/>
     </row>
     <row r="115" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B115" s="11"/>
       <c r="D115" s="12"/>
-      <c r="E115" s="13"/>
+      <c r="E115" s="18"/>
     </row>
     <row r="116" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B116" s="11"/>
       <c r="D116" s="12"/>
-      <c r="E116" s="13"/>
+      <c r="E116" s="18"/>
     </row>
     <row r="117" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B117" s="11"/>
       <c r="D117" s="12"/>
-      <c r="E117" s="13"/>
+      <c r="E117" s="18"/>
     </row>
     <row r="118" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B118" s="11"/>
       <c r="D118" s="12"/>
-      <c r="E118" s="13"/>
+      <c r="E118" s="18"/>
     </row>
     <row r="119" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B119" s="11"/>
       <c r="D119" s="12"/>
-      <c r="E119" s="13"/>
+      <c r="E119" s="18"/>
     </row>
     <row r="120" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B120" s="11"/>
       <c r="D120" s="12"/>
-      <c r="E120" s="13"/>
+      <c r="E120" s="18"/>
     </row>
     <row r="121" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B121" s="11"/>
       <c r="D121" s="12"/>
-      <c r="E121" s="13"/>
+      <c r="E121" s="18"/>
     </row>
     <row r="122" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B122" s="11"/>
       <c r="D122" s="12"/>
-      <c r="E122" s="13"/>
+      <c r="E122" s="18"/>
     </row>
     <row r="123" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B123" s="11"/>
       <c r="D123" s="12"/>
-      <c r="E123" s="13"/>
+      <c r="E123" s="18"/>
     </row>
     <row r="124" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B124" s="11"/>
       <c r="D124" s="12"/>
-      <c r="E124" s="13"/>
+      <c r="E124" s="18"/>
     </row>
     <row r="125" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B125" s="11"/>
       <c r="D125" s="12"/>
-      <c r="E125" s="13"/>
+      <c r="E125" s="18"/>
     </row>
     <row r="126" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B126" s="11"/>
       <c r="D126" s="12"/>
-      <c r="E126" s="13"/>
+      <c r="E126" s="18"/>
     </row>
     <row r="127" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B127" s="11"/>
       <c r="D127" s="12"/>
-      <c r="E127" s="13"/>
+      <c r="E127" s="18"/>
     </row>
     <row r="128" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B128" s="11"/>
       <c r="D128" s="12"/>
-      <c r="E128" s="13"/>
+      <c r="E128" s="18"/>
     </row>
     <row r="129" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B129" s="11"/>
       <c r="D129" s="12"/>
-      <c r="E129" s="13"/>
+      <c r="E129" s="18"/>
     </row>
     <row r="130" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B130" s="11"/>
       <c r="D130" s="12"/>
-      <c r="E130" s="13"/>
+      <c r="E130" s="18"/>
     </row>
     <row r="131" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B131" s="11"/>
       <c r="D131" s="12"/>
-      <c r="E131" s="13"/>
+      <c r="E131" s="18"/>
     </row>
     <row r="132" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B132" s="11"/>
       <c r="D132" s="12"/>
-      <c r="E132" s="13"/>
+      <c r="E132" s="18"/>
     </row>
     <row r="133" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B133" s="11"/>
       <c r="D133" s="12"/>
-      <c r="E133" s="13"/>
+      <c r="E133" s="18"/>
     </row>
     <row r="134" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B134" s="11"/>
       <c r="D134" s="12"/>
-      <c r="E134" s="13"/>
+      <c r="E134" s="18"/>
     </row>
     <row r="135" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B135" s="11"/>
       <c r="D135" s="12"/>
-      <c r="E135" s="13"/>
+      <c r="E135" s="18"/>
     </row>
     <row r="136" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B136" s="11"/>
       <c r="D136" s="12"/>
-      <c r="E136" s="13"/>
+      <c r="E136" s="18"/>
     </row>
     <row r="137" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B137" s="11"/>
       <c r="D137" s="12"/>
-      <c r="E137" s="13"/>
+      <c r="E137" s="18"/>
     </row>
     <row r="138" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B138" s="11"/>
       <c r="D138" s="12"/>
-      <c r="E138" s="13"/>
+      <c r="E138" s="18"/>
     </row>
     <row r="139" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B139" s="11"/>
       <c r="D139" s="12"/>
-      <c r="E139" s="13"/>
+      <c r="E139" s="18"/>
     </row>
     <row r="140" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B140" s="11"/>
       <c r="D140" s="12"/>
-      <c r="E140" s="13"/>
+      <c r="E140" s="18"/>
     </row>
     <row r="141" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B141" s="11"/>
       <c r="D141" s="12"/>
-      <c r="E141" s="13"/>
+      <c r="E141" s="18"/>
     </row>
     <row r="142" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B142" s="11"/>
       <c r="D142" s="12"/>
-      <c r="E142" s="13"/>
+      <c r="E142" s="18"/>
     </row>
     <row r="143" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B143" s="11"/>
       <c r="D143" s="12"/>
-      <c r="E143" s="13"/>
+      <c r="E143" s="18"/>
     </row>
     <row r="144" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B144" s="11"/>
       <c r="D144" s="12"/>
-      <c r="E144" s="13"/>
+      <c r="E144" s="18"/>
     </row>
     <row r="145" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B145" s="11"/>
       <c r="D145" s="12"/>
-      <c r="E145" s="13"/>
+      <c r="E145" s="18"/>
     </row>
     <row r="146" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B146" s="11"/>
       <c r="D146" s="12"/>
-      <c r="E146" s="13"/>
+      <c r="E146" s="18"/>
     </row>
     <row r="147" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B147" s="11"/>
       <c r="D147" s="12"/>
-      <c r="E147" s="13"/>
+      <c r="E147" s="18"/>
     </row>
     <row r="148" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B148" s="11"/>
       <c r="D148" s="12"/>
-      <c r="E148" s="13"/>
+      <c r="E148" s="18"/>
     </row>
     <row r="149" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B149" s="11"/>
       <c r="D149" s="12"/>
-      <c r="E149" s="13"/>
+      <c r="E149" s="18"/>
     </row>
     <row r="150" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B150" s="11"/>
       <c r="D150" s="12"/>
-      <c r="E150" s="13"/>
+      <c r="E150" s="18"/>
     </row>
     <row r="151" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B151" s="11"/>
       <c r="D151" s="12"/>
-      <c r="E151" s="13"/>
+      <c r="E151" s="18"/>
     </row>
     <row r="152" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B152" s="11"/>
       <c r="D152" s="12"/>
-      <c r="E152" s="13"/>
+      <c r="E152" s="18"/>
     </row>
     <row r="153" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B153" s="11"/>
       <c r="D153" s="12"/>
-      <c r="E153" s="13"/>
+      <c r="E153" s="18"/>
     </row>
     <row r="154" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B154" s="11"/>
       <c r="D154" s="12"/>
-      <c r="E154" s="13"/>
+      <c r="E154" s="18"/>
     </row>
     <row r="155" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B155" s="11"/>
       <c r="D155" s="12"/>
-      <c r="E155" s="13"/>
+      <c r="E155" s="18"/>
     </row>
     <row r="156" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B156" s="11"/>
       <c r="D156" s="12"/>
-      <c r="E156" s="13"/>
+      <c r="E156" s="18"/>
     </row>
     <row r="157" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B157" s="11"/>
       <c r="D157" s="12"/>
-      <c r="E157" s="13"/>
+      <c r="E157" s="18"/>
     </row>
     <row r="158" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B158" s="11"/>
       <c r="D158" s="12"/>
-      <c r="E158" s="13"/>
+      <c r="E158" s="18"/>
     </row>
     <row r="159" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B159" s="11"/>
       <c r="D159" s="12"/>
-      <c r="E159" s="13"/>
+      <c r="E159" s="18"/>
     </row>
     <row r="160" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B160" s="11"/>
       <c r="D160" s="12"/>
-      <c r="E160" s="13"/>
+      <c r="E160" s="18"/>
     </row>
     <row r="161" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B161" s="11"/>
       <c r="D161" s="12"/>
-      <c r="E161" s="13"/>
+      <c r="E161" s="18"/>
     </row>
     <row r="162" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B162" s="11"/>
       <c r="D162" s="12"/>
-      <c r="E162" s="13"/>
+      <c r="E162" s="18"/>
     </row>
     <row r="163" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B163" s="11"/>
       <c r="D163" s="12"/>
-      <c r="E163" s="13"/>
+      <c r="E163" s="18"/>
     </row>
     <row r="164" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B164" s="11"/>
       <c r="D164" s="12"/>
-      <c r="E164" s="13"/>
+      <c r="E164" s="18"/>
     </row>
     <row r="165" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B165" s="11"/>
       <c r="D165" s="12"/>
-      <c r="E165" s="13"/>
+      <c r="E165" s="18"/>
     </row>
     <row r="166" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B166" s="11"/>
       <c r="D166" s="12"/>
-      <c r="E166" s="13"/>
+      <c r="E166" s="18"/>
     </row>
     <row r="167" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B167" s="11"/>
       <c r="D167" s="12"/>
-      <c r="E167" s="13"/>
+      <c r="E167" s="18"/>
     </row>
     <row r="168" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B168" s="11"/>
       <c r="D168" s="12"/>
-      <c r="E168" s="13"/>
+      <c r="E168" s="18"/>
     </row>
     <row r="169" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B169" s="11"/>
       <c r="D169" s="12"/>
-      <c r="E169" s="13"/>
+      <c r="E169" s="18"/>
     </row>
     <row r="170" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B170" s="11"/>
       <c r="D170" s="12"/>
-      <c r="E170" s="13"/>
+      <c r="E170" s="18"/>
     </row>
     <row r="171" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B171" s="11"/>
       <c r="D171" s="12"/>
-      <c r="E171" s="13"/>
+      <c r="E171" s="18"/>
     </row>
     <row r="172" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B172" s="11"/>
       <c r="D172" s="12"/>
-      <c r="E172" s="13"/>
+      <c r="E172" s="18"/>
     </row>
     <row r="173" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B173" s="11"/>
       <c r="D173" s="12"/>
-      <c r="E173" s="13"/>
+      <c r="E173" s="18"/>
     </row>
     <row r="174" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B174" s="11"/>
       <c r="D174" s="12"/>
-      <c r="E174" s="13"/>
+      <c r="E174" s="18"/>
     </row>
     <row r="175" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B175" s="11"/>
       <c r="D175" s="12"/>
-      <c r="E175" s="13"/>
+      <c r="E175" s="18"/>
     </row>
     <row r="176" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B176" s="11"/>
       <c r="D176" s="12"/>
-      <c r="E176" s="13"/>
+      <c r="E176" s="18"/>
     </row>
     <row r="177" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B177" s="11"/>
       <c r="D177" s="12"/>
-      <c r="E177" s="13"/>
+      <c r="E177" s="18"/>
     </row>
     <row r="178" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B178" s="11"/>
       <c r="D178" s="12"/>
-      <c r="E178" s="13"/>
+      <c r="E178" s="18"/>
     </row>
     <row r="179" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B179" s="11"/>
       <c r="D179" s="12"/>
-      <c r="E179" s="13"/>
+      <c r="E179" s="18"/>
     </row>
     <row r="180" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B180" s="11"/>
       <c r="D180" s="12"/>
-      <c r="E180" s="13"/>
+      <c r="E180" s="18"/>
     </row>
     <row r="181" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B181" s="11"/>
       <c r="D181" s="12"/>
-      <c r="E181" s="13"/>
+      <c r="E181" s="18"/>
     </row>
     <row r="182" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B182" s="11"/>
       <c r="D182" s="12"/>
-      <c r="E182" s="13"/>
+      <c r="E182" s="18"/>
     </row>
     <row r="183" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B183" s="11"/>
       <c r="D183" s="12"/>
-      <c r="E183" s="13"/>
+      <c r="E183" s="18"/>
     </row>
     <row r="184" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B184" s="11"/>
       <c r="D184" s="12"/>
-      <c r="E184" s="13"/>
+      <c r="E184" s="18"/>
     </row>
     <row r="185" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B185" s="11"/>
       <c r="D185" s="12"/>
-      <c r="E185" s="13"/>
+      <c r="E185" s="18"/>
     </row>
     <row r="186" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B186" s="11"/>
       <c r="D186" s="12"/>
-      <c r="E186" s="13"/>
+      <c r="E186" s="18"/>
     </row>
     <row r="187" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B187" s="11"/>
       <c r="D187" s="12"/>
-      <c r="E187" s="13"/>
+      <c r="E187" s="18"/>
     </row>
     <row r="188" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B188" s="11"/>
       <c r="D188" s="12"/>
-      <c r="E188" s="13"/>
+      <c r="E188" s="18"/>
     </row>
     <row r="189" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B189" s="11"/>
       <c r="D189" s="12"/>
-      <c r="E189" s="13"/>
+      <c r="E189" s="18"/>
     </row>
     <row r="190" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B190" s="11"/>
       <c r="D190" s="12"/>
-      <c r="E190" s="13"/>
+      <c r="E190" s="18"/>
     </row>
     <row r="191" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B191" s="11"/>
       <c r="D191" s="12"/>
-      <c r="E191" s="13"/>
+      <c r="E191" s="18"/>
     </row>
     <row r="192" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B192" s="11"/>
       <c r="D192" s="12"/>
-      <c r="E192" s="13"/>
+      <c r="E192" s="18"/>
     </row>
     <row r="193" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B193" s="11"/>
       <c r="D193" s="12"/>
-      <c r="E193" s="13"/>
+      <c r="E193" s="18"/>
     </row>
     <row r="194" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B194" s="11"/>
       <c r="D194" s="12"/>
-      <c r="E194" s="13"/>
+      <c r="E194" s="18"/>
     </row>
     <row r="195" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B195" s="11"/>
       <c r="D195" s="12"/>
-      <c r="E195" s="13"/>
+      <c r="E195" s="18"/>
     </row>
     <row r="196" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B196" s="11"/>
       <c r="D196" s="12"/>
-      <c r="E196" s="13"/>
+      <c r="E196" s="18"/>
     </row>
     <row r="197" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B197" s="11"/>
       <c r="D197" s="12"/>
-      <c r="E197" s="13"/>
+      <c r="E197" s="18"/>
     </row>
     <row r="198" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B198" s="11"/>
       <c r="D198" s="12"/>
-      <c r="E198" s="13"/>
+      <c r="E198" s="18"/>
     </row>
     <row r="199" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B199" s="11"/>
       <c r="D199" s="12"/>
-      <c r="E199" s="13"/>
+      <c r="E199" s="18"/>
     </row>
     <row r="200" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B200" s="11"/>
       <c r="D200" s="12"/>
-      <c r="E200" s="13"/>
+      <c r="E200" s="18"/>
     </row>
     <row r="201" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B201" s="11"/>
       <c r="D201" s="12"/>
-      <c r="E201" s="13"/>
+      <c r="E201" s="18"/>
     </row>
     <row r="202" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B202" s="11"/>
       <c r="D202" s="12"/>
-      <c r="E202" s="13"/>
+      <c r="E202" s="18"/>
     </row>
     <row r="203" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B203" s="11"/>
       <c r="D203" s="12"/>
-      <c r="E203" s="13"/>
+      <c r="E203" s="18"/>
     </row>
     <row r="204" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B204" s="11"/>
       <c r="D204" s="12"/>
-      <c r="E204" s="13"/>
+      <c r="E204" s="18"/>
     </row>
     <row r="205" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B205" s="11"/>
       <c r="D205" s="12"/>
-      <c r="E205" s="13"/>
+      <c r="E205" s="18"/>
     </row>
     <row r="206" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B206" s="11"/>
       <c r="D206" s="12"/>
-      <c r="E206" s="13"/>
+      <c r="E206" s="18"/>
     </row>
     <row r="207" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B207" s="11"/>
       <c r="D207" s="12"/>
-      <c r="E207" s="13"/>
+      <c r="E207" s="18"/>
     </row>
     <row r="208" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B208" s="11"/>
       <c r="D208" s="12"/>
-      <c r="E208" s="13"/>
+      <c r="E208" s="18"/>
     </row>
     <row r="209" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B209" s="11"/>
       <c r="D209" s="12"/>
-      <c r="E209" s="13"/>
+      <c r="E209" s="18"/>
     </row>
     <row r="210" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B210" s="11"/>
       <c r="D210" s="12"/>
-      <c r="E210" s="13"/>
+      <c r="E210" s="18"/>
     </row>
     <row r="211" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B211" s="11"/>
       <c r="D211" s="12"/>
-      <c r="E211" s="13"/>
+      <c r="E211" s="18"/>
     </row>
     <row r="212" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B212" s="11"/>
       <c r="D212" s="12"/>
-      <c r="E212" s="13"/>
+      <c r="E212" s="18"/>
     </row>
     <row r="213" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B213" s="11"/>
       <c r="D213" s="12"/>
-      <c r="E213" s="13"/>
+      <c r="E213" s="18"/>
     </row>
     <row r="214" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B214" s="11"/>
       <c r="D214" s="12"/>
-      <c r="E214" s="13"/>
+      <c r="E214" s="18"/>
     </row>
     <row r="215" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B215" s="11"/>
       <c r="D215" s="12"/>
-      <c r="E215" s="13"/>
+      <c r="E215" s="18"/>
     </row>
     <row r="216" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B216" s="11"/>
       <c r="D216" s="12"/>
-      <c r="E216" s="13"/>
+      <c r="E216" s="18"/>
     </row>
     <row r="217" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B217" s="11"/>
       <c r="D217" s="12"/>
-      <c r="E217" s="13"/>
+      <c r="E217" s="18"/>
     </row>
     <row r="218" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B218" s="11"/>
       <c r="D218" s="12"/>
-      <c r="E218" s="13"/>
+      <c r="E218" s="18"/>
     </row>
     <row r="219" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B219" s="11"/>
       <c r="D219" s="12"/>
-      <c r="E219" s="13"/>
+      <c r="E219" s="18"/>
     </row>
     <row r="220" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B220" s="11"/>
       <c r="D220" s="12"/>
-      <c r="E220" s="13"/>
+      <c r="E220" s="18"/>
     </row>
     <row r="221" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B221" s="11"/>
       <c r="D221" s="12"/>
-      <c r="E221" s="13"/>
+      <c r="E221" s="18"/>
     </row>
     <row r="222" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B222" s="11"/>
       <c r="D222" s="12"/>
-      <c r="E222" s="13"/>
+      <c r="E222" s="18"/>
     </row>
     <row r="223" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B223" s="11"/>
       <c r="D223" s="12"/>
-      <c r="E223" s="13"/>
+      <c r="E223" s="18"/>
     </row>
     <row r="224" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B224" s="11"/>
       <c r="D224" s="12"/>
-      <c r="E224" s="13"/>
+      <c r="E224" s="18"/>
     </row>
     <row r="225" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B225" s="11"/>
       <c r="D225" s="12"/>
-      <c r="E225" s="13"/>
+      <c r="E225" s="18"/>
     </row>
     <row r="226" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B226" s="11"/>
       <c r="D226" s="12"/>
-      <c r="E226" s="13"/>
+      <c r="E226" s="18"/>
     </row>
     <row r="227" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B227" s="11"/>
       <c r="D227" s="12"/>
-      <c r="E227" s="13"/>
+      <c r="E227" s="18"/>
     </row>
     <row r="228" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B228" s="11"/>
       <c r="D228" s="12"/>
-      <c r="E228" s="13"/>
+      <c r="E228" s="18"/>
     </row>
     <row r="229" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B229" s="11"/>
       <c r="D229" s="12"/>
-      <c r="E229" s="13"/>
+      <c r="E229" s="18"/>
     </row>
     <row r="230" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B230" s="11"/>
       <c r="D230" s="12"/>
-      <c r="E230" s="13"/>
+      <c r="E230" s="18"/>
     </row>
     <row r="231" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B231" s="11"/>
       <c r="D231" s="12"/>
-      <c r="E231" s="13"/>
+      <c r="E231" s="18"/>
     </row>
     <row r="232" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B232" s="11"/>
       <c r="D232" s="12"/>
-      <c r="E232" s="13"/>
+      <c r="E232" s="18"/>
     </row>
     <row r="233" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B233" s="11"/>
       <c r="D233" s="12"/>
-      <c r="E233" s="13"/>
+      <c r="E233" s="18"/>
     </row>
     <row r="234" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B234" s="11"/>
       <c r="D234" s="12"/>
-      <c r="E234" s="13"/>
+      <c r="E234" s="18"/>
     </row>
     <row r="235" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B235" s="11"/>
       <c r="D235" s="12"/>
-      <c r="E235" s="13"/>
+      <c r="E235" s="18"/>
     </row>
     <row r="236" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B236" s="11"/>
       <c r="D236" s="12"/>
-      <c r="E236" s="13"/>
+      <c r="E236" s="18"/>
     </row>
     <row r="237" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B237" s="11"/>
       <c r="D237" s="12"/>
-      <c r="E237" s="13"/>
+      <c r="E237" s="18"/>
     </row>
     <row r="238" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B238" s="11"/>
       <c r="D238" s="12"/>
-      <c r="E238" s="13"/>
+      <c r="E238" s="18"/>
     </row>
     <row r="239" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B239" s="11"/>
       <c r="D239" s="12"/>
-      <c r="E239" s="13"/>
+      <c r="E239" s="18"/>
     </row>
     <row r="240" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B240" s="11"/>
       <c r="D240" s="12"/>
-      <c r="E240" s="13"/>
+      <c r="E240" s="18"/>
     </row>
     <row r="241" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B241" s="11"/>
       <c r="D241" s="12"/>
-      <c r="E241" s="13"/>
+      <c r="E241" s="18"/>
     </row>
     <row r="242" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B242" s="11"/>
       <c r="D242" s="12"/>
-      <c r="E242" s="13"/>
+      <c r="E242" s="18"/>
     </row>
     <row r="243" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B243" s="11"/>
       <c r="D243" s="12"/>
-      <c r="E243" s="13"/>
+      <c r="E243" s="18"/>
     </row>
     <row r="244" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B244" s="11"/>
       <c r="D244" s="12"/>
-      <c r="E244" s="13"/>
+      <c r="E244" s="18"/>
     </row>
     <row r="245" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B245" s="11"/>
       <c r="D245" s="12"/>
-      <c r="E245" s="13"/>
+      <c r="E245" s="18"/>
     </row>
     <row r="246" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B246" s="11"/>
       <c r="D246" s="12"/>
-      <c r="E246" s="13"/>
+      <c r="E246" s="18"/>
     </row>
     <row r="247" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B247" s="11"/>
       <c r="D247" s="12"/>
-      <c r="E247" s="13"/>
+      <c r="E247" s="18"/>
     </row>
     <row r="248" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B248" s="11"/>
       <c r="D248" s="12"/>
-      <c r="E248" s="13"/>
+      <c r="E248" s="18"/>
     </row>
     <row r="249" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B249" s="11"/>
       <c r="D249" s="12"/>
-      <c r="E249" s="13"/>
+      <c r="E249" s="18"/>
     </row>
     <row r="250" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B250" s="11"/>
       <c r="D250" s="12"/>
-      <c r="E250" s="13"/>
+      <c r="E250" s="18"/>
     </row>
     <row r="251" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B251" s="11"/>
       <c r="D251" s="12"/>
-      <c r="E251" s="13"/>
+      <c r="E251" s="18"/>
     </row>
     <row r="252" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B252" s="11"/>
       <c r="D252" s="12"/>
-      <c r="E252" s="13"/>
+      <c r="E252" s="18"/>
     </row>
     <row r="253" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B253" s="11"/>
       <c r="D253" s="12"/>
-      <c r="E253" s="13"/>
+      <c r="E253" s="18"/>
     </row>
     <row r="254" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B254" s="11"/>
       <c r="D254" s="12"/>
-      <c r="E254" s="13"/>
+      <c r="E254" s="18"/>
     </row>
     <row r="255" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B255" s="11"/>
       <c r="D255" s="12"/>
-      <c r="E255" s="13"/>
+      <c r="E255" s="18"/>
     </row>
     <row r="256" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B256" s="11"/>
       <c r="D256" s="12"/>
-      <c r="E256" s="13"/>
+      <c r="E256" s="18"/>
     </row>
     <row r="257" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B257" s="11"/>
       <c r="D257" s="12"/>
-      <c r="E257" s="13"/>
+      <c r="E257" s="18"/>
     </row>
     <row r="258" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B258" s="11"/>
       <c r="D258" s="12"/>
-      <c r="E258" s="13"/>
+      <c r="E258" s="18"/>
     </row>
     <row r="259" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B259" s="11"/>
       <c r="D259" s="12"/>
-      <c r="E259" s="13"/>
+      <c r="E259" s="18"/>
     </row>
     <row r="260" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B260" s="11"/>
       <c r="D260" s="12"/>
-      <c r="E260" s="13"/>
+      <c r="E260" s="18"/>
     </row>
     <row r="261" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B261" s="11"/>
       <c r="D261" s="12"/>
-      <c r="E261" s="13"/>
+      <c r="E261" s="18"/>
     </row>
     <row r="262" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B262" s="11"/>
       <c r="D262" s="12"/>
-      <c r="E262" s="13"/>
+      <c r="E262" s="18"/>
     </row>
     <row r="263" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B263" s="11"/>
       <c r="D263" s="12"/>
-      <c r="E263" s="13"/>
+      <c r="E263" s="18"/>
     </row>
     <row r="264" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B264" s="11"/>
       <c r="D264" s="12"/>
-      <c r="E264" s="13"/>
+      <c r="E264" s="18"/>
     </row>
     <row r="265" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B265" s="11"/>
       <c r="D265" s="12"/>
-      <c r="E265" s="13"/>
+      <c r="E265" s="18"/>
     </row>
     <row r="266" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B266" s="11"/>
       <c r="D266" s="12"/>
-      <c r="E266" s="13"/>
+      <c r="E266" s="18"/>
     </row>
     <row r="267" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B267" s="11"/>
       <c r="D267" s="12"/>
-      <c r="E267" s="13"/>
+      <c r="E267" s="18"/>
     </row>
     <row r="268" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B268" s="11"/>
       <c r="D268" s="12"/>
-      <c r="E268" s="13"/>
+      <c r="E268" s="18"/>
     </row>
     <row r="269" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B269" s="11"/>
       <c r="D269" s="12"/>
-      <c r="E269" s="13"/>
+      <c r="E269" s="18"/>
     </row>
     <row r="270" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B270" s="11"/>
       <c r="D270" s="12"/>
-      <c r="E270" s="13"/>
+      <c r="E270" s="18"/>
     </row>
     <row r="271" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B271" s="11"/>
       <c r="D271" s="12"/>
-      <c r="E271" s="13"/>
+      <c r="E271" s="18"/>
     </row>
     <row r="272" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B272" s="11"/>
       <c r="D272" s="12"/>
-      <c r="E272" s="13"/>
+      <c r="E272" s="18"/>
     </row>
     <row r="273" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B273" s="11"/>
       <c r="D273" s="12"/>
-      <c r="E273" s="13"/>
+      <c r="E273" s="18"/>
     </row>
     <row r="274" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B274" s="11"/>
       <c r="D274" s="12"/>
-      <c r="E274" s="13"/>
+      <c r="E274" s="18"/>
     </row>
     <row r="275" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B275" s="11"/>
       <c r="D275" s="12"/>
-      <c r="E275" s="13"/>
+      <c r="E275" s="18"/>
     </row>
     <row r="276" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B276" s="11"/>
       <c r="D276" s="12"/>
-      <c r="E276" s="13"/>
+      <c r="E276" s="18"/>
     </row>
     <row r="277" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B277" s="11"/>
       <c r="D277" s="12"/>
-      <c r="E277" s="13"/>
+      <c r="E277" s="18"/>
     </row>
     <row r="278" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B278" s="11"/>
       <c r="D278" s="12"/>
-      <c r="E278" s="13"/>
+      <c r="E278" s="18"/>
     </row>
     <row r="279" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B279" s="11"/>
       <c r="D279" s="12"/>
-      <c r="E279" s="13"/>
+      <c r="E279" s="18"/>
     </row>
     <row r="280" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B280" s="11"/>
       <c r="D280" s="12"/>
-      <c r="E280" s="13"/>
+      <c r="E280" s="18"/>
     </row>
     <row r="281" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B281" s="11"/>
       <c r="D281" s="12"/>
-      <c r="E281" s="13"/>
+      <c r="E281" s="18"/>
     </row>
     <row r="282" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B282" s="11"/>
       <c r="D282" s="12"/>
-      <c r="E282" s="13"/>
+      <c r="E282" s="18"/>
     </row>
     <row r="283" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B283" s="11"/>
       <c r="D283" s="12"/>
-      <c r="E283" s="13"/>
+      <c r="E283" s="18"/>
     </row>
     <row r="284" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B284" s="11"/>
       <c r="D284" s="12"/>
-      <c r="E284" s="13"/>
+      <c r="E284" s="18"/>
     </row>
     <row r="285" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B285" s="11"/>
       <c r="D285" s="12"/>
-      <c r="E285" s="13"/>
+      <c r="E285" s="18"/>
     </row>
     <row r="286" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B286" s="11"/>
       <c r="D286" s="12"/>
-      <c r="E286" s="13"/>
+      <c r="E286" s="18"/>
     </row>
     <row r="287" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B287" s="11"/>
       <c r="D287" s="12"/>
-      <c r="E287" s="13"/>
+      <c r="E287" s="18"/>
     </row>
     <row r="288" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B288" s="11"/>
       <c r="D288" s="12"/>
-      <c r="E288" s="13"/>
+      <c r="E288" s="18"/>
     </row>
     <row r="289" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B289" s="11"/>
       <c r="D289" s="12"/>
-      <c r="E289" s="13"/>
+      <c r="E289" s="18"/>
     </row>
     <row r="290" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B290" s="11"/>
       <c r="D290" s="12"/>
-      <c r="E290" s="13"/>
+      <c r="E290" s="18"/>
     </row>
     <row r="291" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B291" s="11"/>
       <c r="D291" s="12"/>
-      <c r="E291" s="13"/>
+      <c r="E291" s="18"/>
     </row>
     <row r="292" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B292" s="11"/>
       <c r="D292" s="12"/>
-      <c r="E292" s="13"/>
+      <c r="E292" s="18"/>
     </row>
     <row r="293" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B293" s="11"/>
       <c r="D293" s="12"/>
-      <c r="E293" s="13"/>
+      <c r="E293" s="18"/>
     </row>
     <row r="294" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B294" s="11"/>
       <c r="D294" s="12"/>
-      <c r="E294" s="13"/>
+      <c r="E294" s="18"/>
     </row>
     <row r="295" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B295" s="11"/>
       <c r="D295" s="12"/>
-      <c r="E295" s="13"/>
+      <c r="E295" s="18"/>
     </row>
     <row r="296" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B296" s="11"/>
       <c r="D296" s="12"/>
-      <c r="E296" s="13"/>
+      <c r="E296" s="18"/>
     </row>
     <row r="297" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B297" s="11"/>
       <c r="D297" s="12"/>
-      <c r="E297" s="13"/>
+      <c r="E297" s="18"/>
     </row>
     <row r="298" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B298" s="11"/>
       <c r="D298" s="12"/>
-      <c r="E298" s="13"/>
+      <c r="E298" s="18"/>
     </row>
     <row r="299" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B299" s="11"/>
       <c r="D299" s="12"/>
-      <c r="E299" s="13"/>
+      <c r="E299" s="18"/>
     </row>
     <row r="300" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B300" s="11"/>
       <c r="D300" s="12"/>
-      <c r="E300" s="13"/>
+      <c r="E300" s="18"/>
     </row>
     <row r="301" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B301" s="11"/>
       <c r="D301" s="12"/>
-      <c r="E301" s="13"/>
+      <c r="E301" s="18"/>
     </row>
     <row r="302" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B302" s="11"/>
       <c r="D302" s="12"/>
-      <c r="E302" s="13"/>
+      <c r="E302" s="18"/>
     </row>
     <row r="303" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B303" s="11"/>
       <c r="D303" s="12"/>
-      <c r="E303" s="13"/>
+      <c r="E303" s="18"/>
     </row>
     <row r="304" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B304" s="11"/>
       <c r="D304" s="12"/>
-      <c r="E304" s="13"/>
+      <c r="E304" s="18"/>
     </row>
     <row r="305" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B305" s="11"/>
       <c r="D305" s="12"/>
-      <c r="E305" s="13"/>
+      <c r="E305" s="18"/>
     </row>
     <row r="306" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B306" s="11"/>
       <c r="D306" s="12"/>
-      <c r="E306" s="13"/>
+      <c r="E306" s="18"/>
     </row>
     <row r="307" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B307" s="11"/>
       <c r="D307" s="12"/>
-      <c r="E307" s="13"/>
+      <c r="E307" s="18"/>
     </row>
     <row r="308" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B308" s="11"/>
       <c r="D308" s="12"/>
-      <c r="E308" s="13"/>
+      <c r="E308" s="18"/>
     </row>
     <row r="309" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B309" s="11"/>
       <c r="D309" s="12"/>
-      <c r="E309" s="13"/>
+      <c r="E309" s="18"/>
     </row>
     <row r="310" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B310" s="11"/>
       <c r="D310" s="12"/>
-      <c r="E310" s="13"/>
+      <c r="E310" s="18"/>
     </row>
     <row r="311" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B311" s="11"/>
       <c r="D311" s="12"/>
-      <c r="E311" s="13"/>
+      <c r="E311" s="18"/>
     </row>
     <row r="312" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B312" s="11"/>
       <c r="D312" s="12"/>
-      <c r="E312" s="13"/>
+      <c r="E312" s="18"/>
     </row>
     <row r="313" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B313" s="11"/>
       <c r="D313" s="12"/>
-      <c r="E313" s="13"/>
+      <c r="E313" s="18"/>
     </row>
     <row r="314" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B314" s="11"/>
       <c r="D314" s="12"/>
-      <c r="E314" s="13"/>
+      <c r="E314" s="18"/>
     </row>
     <row r="315" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B315" s="11"/>
       <c r="D315" s="12"/>
-      <c r="E315" s="13"/>
+      <c r="E315" s="18"/>
     </row>
     <row r="316" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B316" s="11"/>
       <c r="D316" s="12"/>
-      <c r="E316" s="13"/>
+      <c r="E316" s="18"/>
     </row>
     <row r="317" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B317" s="11"/>
       <c r="D317" s="12"/>
-      <c r="E317" s="13"/>
+      <c r="E317" s="18"/>
     </row>
     <row r="318" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B318" s="11"/>
       <c r="D318" s="12"/>
-      <c r="E318" s="13"/>
+      <c r="E318" s="18"/>
     </row>
     <row r="319" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B319" s="11"/>
       <c r="D319" s="12"/>
-      <c r="E319" s="13"/>
+      <c r="E319" s="18"/>
     </row>
     <row r="320" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B320" s="11"/>
       <c r="D320" s="12"/>
-      <c r="E320" s="13"/>
+      <c r="E320" s="18"/>
     </row>
     <row r="321" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B321" s="11"/>
       <c r="D321" s="12"/>
-      <c r="E321" s="13"/>
+      <c r="E321" s="18"/>
     </row>
     <row r="322" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B322" s="11"/>
       <c r="D322" s="12"/>
-      <c r="E322" s="13"/>
+      <c r="E322" s="18"/>
     </row>
     <row r="323" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B323" s="11"/>
       <c r="D323" s="12"/>
-      <c r="E323" s="13"/>
+      <c r="E323" s="18"/>
     </row>
     <row r="324" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B324" s="11"/>
       <c r="D324" s="12"/>
-      <c r="E324" s="13"/>
+      <c r="E324" s="18"/>
     </row>
     <row r="325" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B325" s="11"/>
       <c r="D325" s="12"/>
-      <c r="E325" s="13"/>
+      <c r="E325" s="18"/>
     </row>
     <row r="326" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B326" s="11"/>
       <c r="D326" s="12"/>
-      <c r="E326" s="13"/>
+      <c r="E326" s="18"/>
     </row>
     <row r="327" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B327" s="11"/>
       <c r="D327" s="12"/>
-      <c r="E327" s="13"/>
+      <c r="E327" s="18"/>
     </row>
     <row r="328" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B328" s="11"/>
       <c r="D328" s="12"/>
-      <c r="E328" s="13"/>
+      <c r="E328" s="18"/>
     </row>
     <row r="329" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B329" s="11"/>
       <c r="D329" s="12"/>
-      <c r="E329" s="13"/>
+      <c r="E329" s="18"/>
     </row>
     <row r="330" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B330" s="11"/>
       <c r="D330" s="12"/>
-      <c r="E330" s="13"/>
+      <c r="E330" s="18"/>
     </row>
     <row r="331" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B331" s="11"/>
       <c r="D331" s="12"/>
-      <c r="E331" s="13"/>
+      <c r="E331" s="18"/>
     </row>
     <row r="332" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B332" s="11"/>
       <c r="D332" s="12"/>
-      <c r="E332" s="13"/>
+      <c r="E332" s="18"/>
     </row>
     <row r="333" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B333" s="11"/>
       <c r="D333" s="12"/>
-      <c r="E333" s="13"/>
+      <c r="E333" s="18"/>
     </row>
     <row r="334" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B334" s="11"/>
       <c r="D334" s="12"/>
-      <c r="E334" s="13"/>
+      <c r="E334" s="18"/>
     </row>
     <row r="335" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B335" s="11"/>
       <c r="D335" s="12"/>
-      <c r="E335" s="13"/>
+      <c r="E335" s="18"/>
     </row>
     <row r="336" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B336" s="11"/>
       <c r="D336" s="12"/>
-      <c r="E336" s="13"/>
+      <c r="E336" s="18"/>
     </row>
     <row r="337" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B337" s="11"/>
       <c r="D337" s="12"/>
-      <c r="E337" s="13"/>
+      <c r="E337" s="18"/>
     </row>
     <row r="338" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B338" s="11"/>
       <c r="D338" s="12"/>
-      <c r="E338" s="13"/>
+      <c r="E338" s="18"/>
     </row>
     <row r="339" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B339" s="11"/>
       <c r="D339" s="12"/>
-      <c r="E339" s="13"/>
+      <c r="E339" s="18"/>
     </row>
     <row r="340" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B340" s="11"/>
       <c r="D340" s="12"/>
-      <c r="E340" s="13"/>
+      <c r="E340" s="18"/>
     </row>
     <row r="341" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B341" s="11"/>
       <c r="D341" s="12"/>
-      <c r="E341" s="13"/>
+      <c r="E341" s="18"/>
     </row>
     <row r="342" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B342" s="11"/>
       <c r="D342" s="12"/>
-      <c r="E342" s="13"/>
+      <c r="E342" s="18"/>
     </row>
     <row r="343" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B343" s="11"/>
       <c r="D343" s="12"/>
-      <c r="E343" s="13"/>
+      <c r="E343" s="18"/>
     </row>
     <row r="344" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B344" s="11"/>
       <c r="D344" s="12"/>
-      <c r="E344" s="13"/>
+      <c r="E344" s="18"/>
     </row>
     <row r="345" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B345" s="11"/>
       <c r="D345" s="12"/>
-      <c r="E345" s="13"/>
+      <c r="E345" s="18"/>
     </row>
     <row r="346" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B346" s="11"/>
       <c r="D346" s="12"/>
-      <c r="E346" s="13"/>
+      <c r="E346" s="18"/>
     </row>
     <row r="347" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B347" s="11"/>
       <c r="D347" s="12"/>
-      <c r="E347" s="13"/>
+      <c r="E347" s="18"/>
     </row>
     <row r="348" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B348" s="11"/>
       <c r="D348" s="12"/>
-      <c r="E348" s="13"/>
+      <c r="E348" s="18"/>
     </row>
     <row r="349" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B349" s="11"/>
       <c r="D349" s="12"/>
-      <c r="E349" s="13"/>
+      <c r="E349" s="18"/>
     </row>
     <row r="350" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B350" s="11"/>
       <c r="D350" s="12"/>
-      <c r="E350" s="13"/>
+      <c r="E350" s="18"/>
     </row>
     <row r="351" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B351" s="11"/>
       <c r="D351" s="12"/>
-      <c r="E351" s="13"/>
+      <c r="E351" s="18"/>
     </row>
     <row r="352" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B352" s="11"/>
       <c r="D352" s="12"/>
-      <c r="E352" s="13"/>
+      <c r="E352" s="18"/>
     </row>
     <row r="353" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B353" s="11"/>
       <c r="D353" s="12"/>
-      <c r="E353" s="13"/>
+      <c r="E353" s="18"/>
     </row>
     <row r="354" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B354" s="11"/>
       <c r="D354" s="12"/>
-      <c r="E354" s="13"/>
+      <c r="E354" s="18"/>
     </row>
     <row r="355" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B355" s="11"/>
       <c r="D355" s="12"/>
-      <c r="E355" s="13"/>
+      <c r="E355" s="18"/>
     </row>
     <row r="356" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B356" s="11"/>
       <c r="D356" s="12"/>
-      <c r="E356" s="13"/>
+      <c r="E356" s="18"/>
     </row>
     <row r="357" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B357" s="11"/>
       <c r="D357" s="12"/>
-      <c r="E357" s="13"/>
+      <c r="E357" s="18"/>
     </row>
     <row r="358" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B358" s="11"/>
       <c r="D358" s="12"/>
-      <c r="E358" s="13"/>
+      <c r="E358" s="18"/>
     </row>
     <row r="359" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B359" s="11"/>
       <c r="D359" s="12"/>
-      <c r="E359" s="13"/>
+      <c r="E359" s="18"/>
     </row>
     <row r="360" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B360" s="11"/>
       <c r="D360" s="12"/>
-      <c r="E360" s="13"/>
+      <c r="E360" s="18"/>
     </row>
     <row r="361" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B361" s="11"/>
       <c r="D361" s="12"/>
-      <c r="E361" s="13"/>
+      <c r="E361" s="18"/>
     </row>
     <row r="362" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B362" s="11"/>
       <c r="D362" s="12"/>
-      <c r="E362" s="13"/>
+      <c r="E362" s="18"/>
     </row>
     <row r="363" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B363" s="11"/>
       <c r="D363" s="12"/>
-      <c r="E363" s="13"/>
+      <c r="E363" s="18"/>
     </row>
     <row r="364" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B364" s="11"/>
       <c r="D364" s="12"/>
-      <c r="E364" s="13"/>
+      <c r="E364" s="18"/>
     </row>
     <row r="365" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B365" s="11"/>
       <c r="D365" s="12"/>
-      <c r="E365" s="13"/>
+      <c r="E365" s="18"/>
     </row>
     <row r="366" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B366" s="11"/>
       <c r="D366" s="12"/>
-      <c r="E366" s="13"/>
+      <c r="E366" s="18"/>
     </row>
     <row r="367" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B367" s="11"/>
       <c r="D367" s="12"/>
-      <c r="E367" s="13"/>
+      <c r="E367" s="18"/>
     </row>
     <row r="368" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B368" s="11"/>
       <c r="D368" s="12"/>
-      <c r="E368" s="13"/>
+      <c r="E368" s="18"/>
     </row>
     <row r="369" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B369" s="11"/>
       <c r="D369" s="12"/>
-      <c r="E369" s="13"/>
+      <c r="E369" s="18"/>
     </row>
     <row r="370" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B370" s="11"/>
       <c r="D370" s="12"/>
-      <c r="E370" s="13"/>
+      <c r="E370" s="18"/>
     </row>
     <row r="371" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B371" s="11"/>
       <c r="D371" s="12"/>
-      <c r="E371" s="13"/>
+      <c r="E371" s="18"/>
     </row>
     <row r="372" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B372" s="11"/>
       <c r="D372" s="12"/>
-      <c r="E372" s="13"/>
+      <c r="E372" s="18"/>
     </row>
     <row r="373" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B373" s="11"/>
       <c r="D373" s="12"/>
-      <c r="E373" s="13"/>
+      <c r="E373" s="18"/>
     </row>
     <row r="374" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B374" s="11"/>
       <c r="D374" s="12"/>
-      <c r="E374" s="13"/>
+      <c r="E374" s="18"/>
     </row>
     <row r="375" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B375" s="11"/>
       <c r="D375" s="12"/>
-      <c r="E375" s="13"/>
+      <c r="E375" s="18"/>
     </row>
     <row r="376" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B376" s="11"/>
       <c r="D376" s="12"/>
-      <c r="E376" s="13"/>
+      <c r="E376" s="18"/>
     </row>
     <row r="377" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B377" s="11"/>
       <c r="D377" s="12"/>
-      <c r="E377" s="13"/>
+      <c r="E377" s="18"/>
     </row>
     <row r="378" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B378" s="11"/>
       <c r="D378" s="12"/>
-      <c r="E378" s="13"/>
+      <c r="E378" s="18"/>
     </row>
     <row r="379" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B379" s="11"/>
       <c r="D379" s="12"/>
-      <c r="E379" s="13"/>
+      <c r="E379" s="18"/>
     </row>
     <row r="380" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B380" s="11"/>
       <c r="D380" s="12"/>
-      <c r="E380" s="13"/>
+      <c r="E380" s="18"/>
     </row>
     <row r="381" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B381" s="11"/>
       <c r="D381" s="12"/>
-      <c r="E381" s="13"/>
+      <c r="E381" s="18"/>
     </row>
     <row r="382" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B382" s="11"/>
       <c r="D382" s="12"/>
-      <c r="E382" s="13"/>
+      <c r="E382" s="18"/>
     </row>
     <row r="383" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B383" s="11"/>
       <c r="D383" s="12"/>
-      <c r="E383" s="13"/>
+      <c r="E383" s="18"/>
     </row>
     <row r="384" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B384" s="11"/>
       <c r="D384" s="12"/>
-      <c r="E384" s="13"/>
+      <c r="E384" s="18"/>
     </row>
     <row r="385" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B385" s="11"/>
       <c r="D385" s="12"/>
-      <c r="E385" s="13"/>
+      <c r="E385" s="18"/>
     </row>
     <row r="386" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B386" s="11"/>
       <c r="D386" s="12"/>
-      <c r="E386" s="13"/>
+      <c r="E386" s="18"/>
     </row>
     <row r="387" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B387" s="11"/>
       <c r="D387" s="12"/>
-      <c r="E387" s="13"/>
+      <c r="E387" s="18"/>
     </row>
     <row r="388" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B388" s="11"/>
       <c r="D388" s="12"/>
-      <c r="E388" s="13"/>
+      <c r="E388" s="18"/>
     </row>
     <row r="389" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B389" s="11"/>
       <c r="D389" s="12"/>
-      <c r="E389" s="13"/>
+      <c r="E389" s="18"/>
     </row>
     <row r="390" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B390" s="11"/>
       <c r="D390" s="12"/>
-      <c r="E390" s="13"/>
+      <c r="E390" s="18"/>
     </row>
     <row r="391" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B391" s="11"/>
       <c r="D391" s="12"/>
-      <c r="E391" s="13"/>
+      <c r="E391" s="18"/>
     </row>
     <row r="392" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B392" s="11"/>
       <c r="D392" s="12"/>
-      <c r="E392" s="13"/>
+      <c r="E392" s="18"/>
     </row>
     <row r="393" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B393" s="11"/>
       <c r="D393" s="12"/>
-      <c r="E393" s="13"/>
+      <c r="E393" s="18"/>
     </row>
     <row r="394" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B394" s="11"/>
       <c r="D394" s="12"/>
-      <c r="E394" s="13"/>
+      <c r="E394" s="18"/>
     </row>
     <row r="395" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B395" s="11"/>
       <c r="D395" s="12"/>
-      <c r="E395" s="13"/>
+      <c r="E395" s="18"/>
     </row>
     <row r="396" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B396" s="11"/>
       <c r="D396" s="12"/>
-      <c r="E396" s="13"/>
+      <c r="E396" s="18"/>
     </row>
     <row r="397" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B397" s="11"/>
       <c r="D397" s="12"/>
-      <c r="E397" s="13"/>
+      <c r="E397" s="18"/>
     </row>
     <row r="398" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B398" s="11"/>
       <c r="D398" s="12"/>
-      <c r="E398" s="13"/>
+      <c r="E398" s="18"/>
     </row>
     <row r="399" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B399" s="11"/>
       <c r="D399" s="12"/>
-      <c r="E399" s="13"/>
+      <c r="E399" s="18"/>
     </row>
     <row r="400" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B400" s="11"/>
       <c r="D400" s="12"/>
-      <c r="E400" s="13"/>
+      <c r="E400" s="18"/>
     </row>
     <row r="401" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B401" s="11"/>
       <c r="D401" s="12"/>
-      <c r="E401" s="13"/>
+      <c r="E401" s="18"/>
     </row>
     <row r="402" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B402" s="11"/>
       <c r="D402" s="12"/>
-      <c r="E402" s="13"/>
+      <c r="E402" s="18"/>
     </row>
     <row r="403" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B403" s="11"/>
       <c r="D403" s="12"/>
-      <c r="E403" s="13"/>
+      <c r="E403" s="18"/>
     </row>
     <row r="404" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B404" s="11"/>
       <c r="D404" s="12"/>
-      <c r="E404" s="13"/>
+      <c r="E404" s="18"/>
     </row>
     <row r="405" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B405" s="11"/>
       <c r="D405" s="12"/>
-      <c r="E405" s="13"/>
+      <c r="E405" s="18"/>
     </row>
     <row r="406" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B406" s="11"/>
       <c r="D406" s="12"/>
-      <c r="E406" s="13"/>
+      <c r="E406" s="18"/>
     </row>
     <row r="407" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B407" s="11"/>
       <c r="D407" s="12"/>
-      <c r="E407" s="13"/>
+      <c r="E407" s="18"/>
     </row>
     <row r="408" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B408" s="11"/>
       <c r="D408" s="12"/>
-      <c r="E408" s="13"/>
+      <c r="E408" s="18"/>
     </row>
     <row r="409" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B409" s="11"/>
       <c r="D409" s="12"/>
-      <c r="E409" s="13"/>
+      <c r="E409" s="18"/>
     </row>
     <row r="410" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B410" s="11"/>
       <c r="D410" s="12"/>
-      <c r="E410" s="13"/>
+      <c r="E410" s="18"/>
     </row>
     <row r="411" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B411" s="11"/>
       <c r="D411" s="12"/>
-      <c r="E411" s="13"/>
+      <c r="E411" s="18"/>
     </row>
     <row r="412" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B412" s="11"/>
       <c r="D412" s="12"/>
-      <c r="E412" s="13"/>
+      <c r="E412" s="18"/>
     </row>
     <row r="413" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B413" s="11"/>
       <c r="D413" s="12"/>
-      <c r="E413" s="13"/>
+      <c r="E413" s="18"/>
     </row>
     <row r="414" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B414" s="11"/>
       <c r="D414" s="12"/>
-      <c r="E414" s="13"/>
+      <c r="E414" s="18"/>
     </row>
     <row r="415" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B415" s="11"/>
       <c r="D415" s="12"/>
-      <c r="E415" s="13"/>
+      <c r="E415" s="18"/>
     </row>
     <row r="416" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B416" s="11"/>
       <c r="D416" s="12"/>
-      <c r="E416" s="13"/>
+      <c r="E416" s="18"/>
     </row>
     <row r="417" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B417" s="11"/>
       <c r="D417" s="12"/>
-      <c r="E417" s="13"/>
+      <c r="E417" s="18"/>
     </row>
     <row r="418" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B418" s="11"/>
       <c r="D418" s="12"/>
-      <c r="E418" s="13"/>
+      <c r="E418" s="18"/>
     </row>
     <row r="419" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B419" s="11"/>
       <c r="D419" s="12"/>
-      <c r="E419" s="13"/>
+      <c r="E419" s="18"/>
     </row>
     <row r="420" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B420" s="11"/>
       <c r="D420" s="12"/>
-      <c r="E420" s="13"/>
+      <c r="E420" s="18"/>
     </row>
     <row r="421" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B421" s="11"/>
       <c r="D421" s="12"/>
-      <c r="E421" s="13"/>
+      <c r="E421" s="18"/>
     </row>
     <row r="422" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B422" s="11"/>
       <c r="D422" s="12"/>
-      <c r="E422" s="13"/>
+      <c r="E422" s="18"/>
     </row>
     <row r="423" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B423" s="11"/>
       <c r="D423" s="12"/>
-      <c r="E423" s="13"/>
+      <c r="E423" s="18"/>
     </row>
     <row r="424" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B424" s="11"/>
       <c r="D424" s="12"/>
-      <c r="E424" s="13"/>
+      <c r="E424" s="18"/>
     </row>
     <row r="425" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B425" s="11"/>
       <c r="D425" s="12"/>
-      <c r="E425" s="13"/>
+      <c r="E425" s="18"/>
     </row>
     <row r="426" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B426" s="11"/>
       <c r="D426" s="12"/>
-      <c r="E426" s="13"/>
+      <c r="E426" s="18"/>
     </row>
     <row r="427" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B427" s="11"/>
       <c r="D427" s="12"/>
-      <c r="E427" s="13"/>
+      <c r="E427" s="18"/>
     </row>
     <row r="428" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B428" s="11"/>
       <c r="D428" s="12"/>
-      <c r="E428" s="13"/>
+      <c r="E428" s="18"/>
     </row>
     <row r="429" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B429" s="11"/>
       <c r="D429" s="12"/>
-      <c r="E429" s="13"/>
+      <c r="E429" s="18"/>
     </row>
     <row r="430" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B430" s="11"/>
       <c r="D430" s="12"/>
-      <c r="E430" s="13"/>
+      <c r="E430" s="18"/>
     </row>
     <row r="431" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B431" s="11"/>
       <c r="D431" s="12"/>
-      <c r="E431" s="13"/>
+      <c r="E431" s="18"/>
     </row>
     <row r="432" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B432" s="11"/>
       <c r="D432" s="12"/>
-      <c r="E432" s="13"/>
+      <c r="E432" s="18"/>
     </row>
     <row r="433" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B433" s="11"/>
       <c r="D433" s="12"/>
-      <c r="E433" s="13"/>
+      <c r="E433" s="18"/>
     </row>
     <row r="434" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B434" s="11"/>
       <c r="D434" s="12"/>
-      <c r="E434" s="13"/>
+      <c r="E434" s="18"/>
     </row>
     <row r="435" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B435" s="11"/>
       <c r="D435" s="12"/>
-      <c r="E435" s="13"/>
+      <c r="E435" s="18"/>
     </row>
     <row r="436" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B436" s="11"/>
       <c r="D436" s="12"/>
-      <c r="E436" s="13"/>
+      <c r="E436" s="18"/>
     </row>
     <row r="437" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B437" s="11"/>
       <c r="D437" s="12"/>
-      <c r="E437" s="13"/>
+      <c r="E437" s="18"/>
     </row>
     <row r="438" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B438" s="11"/>
       <c r="D438" s="12"/>
-      <c r="E438" s="13"/>
+      <c r="E438" s="18"/>
     </row>
     <row r="439" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B439" s="11"/>
       <c r="D439" s="12"/>
-      <c r="E439" s="13"/>
+      <c r="E439" s="18"/>
     </row>
     <row r="440" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B440" s="11"/>
       <c r="D440" s="12"/>
-      <c r="E440" s="13"/>
+      <c r="E440" s="18"/>
     </row>
     <row r="441" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B441" s="11"/>
       <c r="D441" s="12"/>
-      <c r="E441" s="13"/>
+      <c r="E441" s="18"/>
     </row>
     <row r="442" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B442" s="11"/>
       <c r="D442" s="12"/>
-      <c r="E442" s="13"/>
+      <c r="E442" s="18"/>
     </row>
     <row r="443" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B443" s="11"/>
       <c r="D443" s="12"/>
-      <c r="E443" s="13"/>
+      <c r="E443" s="18"/>
     </row>
     <row r="444" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B444" s="11"/>
       <c r="D444" s="12"/>
-      <c r="E444" s="13"/>
+      <c r="E444" s="18"/>
     </row>
     <row r="445" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B445" s="11"/>
       <c r="D445" s="12"/>
-      <c r="E445" s="13"/>
+      <c r="E445" s="18"/>
     </row>
     <row r="446" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B446" s="11"/>
       <c r="D446" s="12"/>
-      <c r="E446" s="13"/>
+      <c r="E446" s="18"/>
     </row>
     <row r="447" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B447" s="11"/>
       <c r="D447" s="12"/>
-      <c r="E447" s="13"/>
+      <c r="E447" s="18"/>
     </row>
     <row r="448" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B448" s="11"/>
       <c r="D448" s="12"/>
-      <c r="E448" s="13"/>
+      <c r="E448" s="18"/>
     </row>
     <row r="449" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B449" s="11"/>
       <c r="D449" s="12"/>
-      <c r="E449" s="13"/>
+      <c r="E449" s="18"/>
     </row>
     <row r="450" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B450" s="11"/>
       <c r="D450" s="12"/>
-      <c r="E450" s="13"/>
+      <c r="E450" s="18"/>
     </row>
     <row r="451" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B451" s="11"/>
       <c r="D451" s="12"/>
-      <c r="E451" s="13"/>
+      <c r="E451" s="18"/>
     </row>
     <row r="452" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B452" s="11"/>
       <c r="D452" s="12"/>
-      <c r="E452" s="13"/>
+      <c r="E452" s="18"/>
     </row>
     <row r="453" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B453" s="11"/>
       <c r="D453" s="12"/>
-      <c r="E453" s="13"/>
+      <c r="E453" s="18"/>
     </row>
     <row r="454" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B454" s="11"/>
       <c r="D454" s="12"/>
-      <c r="E454" s="13"/>
+      <c r="E454" s="18"/>
     </row>
     <row r="455" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B455" s="11"/>
       <c r="D455" s="12"/>
-      <c r="E455" s="13"/>
+      <c r="E455" s="18"/>
     </row>
     <row r="456" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B456" s="11"/>
       <c r="D456" s="12"/>
-      <c r="E456" s="13"/>
+      <c r="E456" s="18"/>
     </row>
     <row r="457" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B457" s="11"/>
       <c r="D457" s="12"/>
-      <c r="E457" s="13"/>
+      <c r="E457" s="18"/>
     </row>
     <row r="458" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B458" s="11"/>
       <c r="D458" s="12"/>
-      <c r="E458" s="13"/>
+      <c r="E458" s="18"/>
     </row>
     <row r="459" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B459" s="11"/>
       <c r="D459" s="12"/>
-      <c r="E459" s="13"/>
+      <c r="E459" s="18"/>
     </row>
     <row r="460" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B460" s="11"/>
       <c r="D460" s="12"/>
-      <c r="E460" s="13"/>
+      <c r="E460" s="18"/>
     </row>
     <row r="461" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B461" s="11"/>
       <c r="D461" s="12"/>
-      <c r="E461" s="13"/>
+      <c r="E461" s="18"/>
     </row>
     <row r="462" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B462" s="11"/>
       <c r="D462" s="12"/>
-      <c r="E462" s="13"/>
+      <c r="E462" s="18"/>
     </row>
     <row r="463" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B463" s="11"/>
       <c r="D463" s="12"/>
-      <c r="E463" s="13"/>
+      <c r="E463" s="18"/>
     </row>
     <row r="464" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B464" s="11"/>
       <c r="D464" s="12"/>
-      <c r="E464" s="13"/>
+      <c r="E464" s="18"/>
     </row>
     <row r="465" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B465" s="11"/>
       <c r="D465" s="12"/>
-      <c r="E465" s="13"/>
+      <c r="E465" s="18"/>
     </row>
     <row r="466" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B466" s="11"/>
       <c r="D466" s="12"/>
-      <c r="E466" s="13"/>
+      <c r="E466" s="18"/>
     </row>
     <row r="467" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B467" s="11"/>
       <c r="D467" s="12"/>
-      <c r="E467" s="13"/>
+      <c r="E467" s="18"/>
     </row>
     <row r="468" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B468" s="11"/>
       <c r="D468" s="12"/>
-      <c r="E468" s="13"/>
+      <c r="E468" s="18"/>
     </row>
     <row r="469" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B469" s="11"/>
       <c r="D469" s="12"/>
-      <c r="E469" s="13"/>
+      <c r="E469" s="18"/>
     </row>
     <row r="470" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B470" s="11"/>
       <c r="D470" s="12"/>
-      <c r="E470" s="13"/>
+      <c r="E470" s="18"/>
     </row>
     <row r="471" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B471" s="11"/>
       <c r="D471" s="12"/>
-      <c r="E471" s="13"/>
+      <c r="E471" s="18"/>
     </row>
     <row r="472" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B472" s="11"/>
       <c r="D472" s="12"/>
-      <c r="E472" s="13"/>
+      <c r="E472" s="18"/>
     </row>
     <row r="473" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B473" s="11"/>
       <c r="D473" s="12"/>
-      <c r="E473" s="13"/>
+      <c r="E473" s="18"/>
     </row>
     <row r="474" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B474" s="11"/>
       <c r="D474" s="12"/>
-      <c r="E474" s="13"/>
+      <c r="E474" s="18"/>
     </row>
     <row r="475" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B475" s="11"/>
       <c r="D475" s="12"/>
-      <c r="E475" s="13"/>
+      <c r="E475" s="18"/>
     </row>
     <row r="476" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B476" s="11"/>
       <c r="D476" s="12"/>
-      <c r="E476" s="13"/>
+      <c r="E476" s="18"/>
     </row>
     <row r="477" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B477" s="11"/>
       <c r="D477" s="12"/>
-      <c r="E477" s="13"/>
+      <c r="E477" s="18"/>
     </row>
     <row r="478" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B478" s="11"/>
       <c r="D478" s="12"/>
-      <c r="E478" s="13"/>
+      <c r="E478" s="18"/>
     </row>
     <row r="479" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B479" s="11"/>
       <c r="D479" s="12"/>
-      <c r="E479" s="13"/>
+      <c r="E479" s="18"/>
     </row>
     <row r="480" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B480" s="11"/>
       <c r="D480" s="12"/>
-      <c r="E480" s="13"/>
+      <c r="E480" s="18"/>
     </row>
     <row r="481" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B481" s="11"/>
       <c r="D481" s="12"/>
-      <c r="E481" s="13"/>
+      <c r="E481" s="18"/>
     </row>
     <row r="482" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B482" s="11"/>
       <c r="D482" s="12"/>
-      <c r="E482" s="13"/>
+      <c r="E482" s="18"/>
     </row>
     <row r="483" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B483" s="11"/>
       <c r="D483" s="12"/>
-      <c r="E483" s="13"/>
+      <c r="E483" s="18"/>
     </row>
     <row r="484" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B484" s="11"/>
       <c r="D484" s="12"/>
-      <c r="E484" s="13"/>
+      <c r="E484" s="18"/>
     </row>
     <row r="485" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B485" s="11"/>
       <c r="D485" s="12"/>
-      <c r="E485" s="13"/>
+      <c r="E485" s="18"/>
     </row>
     <row r="486" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B486" s="11"/>
       <c r="D486" s="12"/>
-      <c r="E486" s="13"/>
+      <c r="E486" s="18"/>
     </row>
     <row r="487" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B487" s="11"/>
       <c r="D487" s="12"/>
-      <c r="E487" s="13"/>
+      <c r="E487" s="18"/>
     </row>
     <row r="488" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B488" s="11"/>
       <c r="D488" s="12"/>
-      <c r="E488" s="13"/>
+      <c r="E488" s="18"/>
     </row>
     <row r="489" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B489" s="11"/>
       <c r="D489" s="12"/>
-      <c r="E489" s="13"/>
+      <c r="E489" s="18"/>
     </row>
     <row r="490" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B490" s="11"/>
       <c r="D490" s="12"/>
-      <c r="E490" s="13"/>
+      <c r="E490" s="18"/>
     </row>
     <row r="491" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B491" s="11"/>
       <c r="D491" s="12"/>
-      <c r="E491" s="13"/>
+      <c r="E491" s="18"/>
     </row>
     <row r="492" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B492" s="11"/>
       <c r="D492" s="12"/>
-      <c r="E492" s="13"/>
+      <c r="E492" s="18"/>
     </row>
     <row r="493" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B493" s="11"/>
       <c r="D493" s="12"/>
-      <c r="E493" s="13"/>
+      <c r="E493" s="18"/>
     </row>
     <row r="494" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B494" s="11"/>
       <c r="D494" s="12"/>
-      <c r="E494" s="13"/>
+      <c r="E494" s="18"/>
     </row>
     <row r="495" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B495" s="11"/>
       <c r="D495" s="12"/>
-      <c r="E495" s="13"/>
+      <c r="E495" s="18"/>
     </row>
     <row r="496" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B496" s="11"/>
       <c r="D496" s="12"/>
-      <c r="E496" s="13"/>
+      <c r="E496" s="18"/>
     </row>
     <row r="497" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B497" s="11"/>
       <c r="D497" s="12"/>
-      <c r="E497" s="13"/>
+      <c r="E497" s="18"/>
     </row>
     <row r="498" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B498" s="11"/>
       <c r="D498" s="12"/>
-      <c r="E498" s="13"/>
+      <c r="E498" s="18"/>
     </row>
     <row r="499" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B499" s="11"/>
       <c r="D499" s="12"/>
-      <c r="E499" s="13"/>
+      <c r="E499" s="18"/>
     </row>
     <row r="500" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B500" s="11"/>
       <c r="D500" s="12"/>
-      <c r="E500" s="13"/>
+      <c r="E500" s="18"/>
     </row>
     <row r="501" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B501" s="11"/>
       <c r="D501" s="12"/>
-      <c r="E501" s="13"/>
+      <c r="E501" s="18"/>
     </row>
     <row r="502" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B502" s="11"/>
       <c r="D502" s="12"/>
-      <c r="E502" s="13"/>
+      <c r="E502" s="18"/>
     </row>
     <row r="503" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B503" s="11"/>
       <c r="D503" s="12"/>
-      <c r="E503" s="13"/>
+      <c r="E503" s="18"/>
     </row>
     <row r="504" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B504" s="11"/>
       <c r="D504" s="12"/>
-      <c r="E504" s="13"/>
+      <c r="E504" s="18"/>
     </row>
     <row r="505" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B505" s="11"/>
       <c r="D505" s="12"/>
-      <c r="E505" s="13"/>
+      <c r="E505" s="18"/>
     </row>
     <row r="506" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B506" s="11"/>
       <c r="D506" s="12"/>
-      <c r="E506" s="13"/>
+      <c r="E506" s="18"/>
     </row>
     <row r="507" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B507" s="11"/>
       <c r="D507" s="12"/>
-      <c r="E507" s="13"/>
+      <c r="E507" s="18"/>
     </row>
     <row r="508" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B508" s="11"/>
       <c r="D508" s="12"/>
-      <c r="E508" s="13"/>
+      <c r="E508" s="18"/>
     </row>
     <row r="509" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B509" s="11"/>
       <c r="D509" s="12"/>
-      <c r="E509" s="13"/>
+      <c r="E509" s="18"/>
     </row>
     <row r="510" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B510" s="11"/>
       <c r="D510" s="12"/>
-      <c r="E510" s="13"/>
+      <c r="E510" s="18"/>
     </row>
     <row r="511" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B511" s="11"/>
       <c r="D511" s="12"/>
-      <c r="E511" s="13"/>
+      <c r="E511" s="18"/>
     </row>
     <row r="512" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B512" s="11"/>
       <c r="D512" s="12"/>
-      <c r="E512" s="13"/>
+      <c r="E512" s="18"/>
     </row>
     <row r="513" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B513" s="11"/>
       <c r="D513" s="12"/>
-      <c r="E513" s="13"/>
+      <c r="E513" s="18"/>
     </row>
     <row r="514" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B514" s="11"/>
       <c r="D514" s="12"/>
-      <c r="E514" s="13"/>
+      <c r="E514" s="18"/>
     </row>
     <row r="515" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B515" s="11"/>
       <c r="D515" s="12"/>
-      <c r="E515" s="13"/>
+      <c r="E515" s="18"/>
     </row>
     <row r="516" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B516" s="11"/>
       <c r="D516" s="12"/>
-      <c r="E516" s="13"/>
+      <c r="E516" s="18"/>
     </row>
     <row r="517" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B517" s="11"/>
       <c r="D517" s="12"/>
-      <c r="E517" s="13"/>
+      <c r="E517" s="18"/>
     </row>
     <row r="518" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B518" s="11"/>
       <c r="D518" s="12"/>
-      <c r="E518" s="13"/>
+      <c r="E518" s="18"/>
     </row>
     <row r="519" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B519" s="11"/>
       <c r="D519" s="12"/>
-      <c r="E519" s="13"/>
+      <c r="E519" s="18"/>
     </row>
     <row r="520" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B520" s="11"/>
       <c r="D520" s="12"/>
-      <c r="E520" s="13"/>
+      <c r="E520" s="18"/>
     </row>
     <row r="521" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B521" s="11"/>
       <c r="D521" s="12"/>
-      <c r="E521" s="13"/>
+      <c r="E521" s="18"/>
     </row>
     <row r="522" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B522" s="11"/>
       <c r="D522" s="12"/>
-      <c r="E522" s="13"/>
+      <c r="E522" s="18"/>
     </row>
     <row r="523" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B523" s="11"/>
       <c r="D523" s="12"/>
-      <c r="E523" s="13"/>
+      <c r="E523" s="18"/>
     </row>
     <row r="524" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B524" s="11"/>
       <c r="D524" s="12"/>
-      <c r="E524" s="13"/>
+      <c r="E524" s="18"/>
     </row>
     <row r="525" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B525" s="11"/>
       <c r="D525" s="12"/>
-      <c r="E525" s="13"/>
+      <c r="E525" s="18"/>
     </row>
     <row r="526" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B526" s="11"/>
       <c r="D526" s="12"/>
-      <c r="E526" s="13"/>
+      <c r="E526" s="18"/>
     </row>
     <row r="527" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B527" s="11"/>
       <c r="D527" s="12"/>
-      <c r="E527" s="13"/>
+      <c r="E527" s="18"/>
     </row>
     <row r="528" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B528" s="11"/>
       <c r="D528" s="12"/>
-      <c r="E528" s="13"/>
+      <c r="E528" s="18"/>
     </row>
     <row r="529" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B529" s="11"/>
       <c r="D529" s="12"/>
-      <c r="E529" s="13"/>
+      <c r="E529" s="18"/>
     </row>
     <row r="530" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B530" s="11"/>
       <c r="D530" s="12"/>
-      <c r="E530" s="13"/>
+      <c r="E530" s="18"/>
     </row>
     <row r="531" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B531" s="11"/>
       <c r="D531" s="12"/>
-      <c r="E531" s="13"/>
+      <c r="E531" s="18"/>
     </row>
     <row r="532" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B532" s="11"/>
       <c r="D532" s="12"/>
-      <c r="E532" s="13"/>
+      <c r="E532" s="18"/>
     </row>
     <row r="533" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B533" s="11"/>
       <c r="D533" s="12"/>
-      <c r="E533" s="13"/>
+      <c r="E533" s="18"/>
     </row>
     <row r="534" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B534" s="11"/>
       <c r="D534" s="12"/>
-      <c r="E534" s="13"/>
+      <c r="E534" s="18"/>
     </row>
     <row r="535" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B535" s="11"/>
       <c r="D535" s="12"/>
-      <c r="E535" s="13"/>
+      <c r="E535" s="18"/>
     </row>
     <row r="536" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B536" s="11"/>
       <c r="D536" s="12"/>
-      <c r="E536" s="13"/>
+      <c r="E536" s="18"/>
     </row>
     <row r="537" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B537" s="11"/>
       <c r="D537" s="12"/>
-      <c r="E537" s="13"/>
+      <c r="E537" s="18"/>
     </row>
     <row r="538" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B538" s="11"/>
       <c r="D538" s="12"/>
-      <c r="E538" s="13"/>
+      <c r="E538" s="18"/>
     </row>
     <row r="539" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B539" s="11"/>
       <c r="D539" s="12"/>
-      <c r="E539" s="13"/>
+      <c r="E539" s="18"/>
     </row>
     <row r="540" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B540" s="11"/>
       <c r="D540" s="12"/>
-      <c r="E540" s="13"/>
+      <c r="E540" s="18"/>
     </row>
     <row r="541" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B541" s="11"/>
       <c r="D541" s="12"/>
-      <c r="E541" s="13"/>
+      <c r="E541" s="18"/>
     </row>
     <row r="542" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B542" s="11"/>
       <c r="D542" s="12"/>
-      <c r="E542" s="13"/>
+      <c r="E542" s="18"/>
     </row>
     <row r="543" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B543" s="11"/>
       <c r="D543" s="12"/>
-      <c r="E543" s="13"/>
+      <c r="E543" s="18"/>
     </row>
     <row r="544" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B544" s="11"/>
       <c r="D544" s="12"/>
-      <c r="E544" s="13"/>
+      <c r="E544" s="18"/>
     </row>
     <row r="545" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B545" s="11"/>
       <c r="D545" s="12"/>
-      <c r="E545" s="13"/>
+      <c r="E545" s="18"/>
     </row>
     <row r="546" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B546" s="11"/>
       <c r="D546" s="12"/>
-      <c r="E546" s="13"/>
+      <c r="E546" s="18"/>
     </row>
     <row r="547" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B547" s="11"/>
       <c r="D547" s="12"/>
-      <c r="E547" s="13"/>
+      <c r="E547" s="18"/>
     </row>
     <row r="548" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B548" s="11"/>
       <c r="D548" s="12"/>
-      <c r="E548" s="13"/>
+      <c r="E548" s="18"/>
     </row>
     <row r="549" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B549" s="11"/>
       <c r="D549" s="12"/>
-      <c r="E549" s="13"/>
+      <c r="E549" s="18"/>
     </row>
     <row r="550" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B550" s="11"/>
       <c r="D550" s="12"/>
-      <c r="E550" s="13"/>
+      <c r="E550" s="18"/>
     </row>
     <row r="551" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B551" s="11"/>
       <c r="D551" s="12"/>
-      <c r="E551" s="13"/>
+      <c r="E551" s="18"/>
     </row>
     <row r="552" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B552" s="11"/>
       <c r="D552" s="12"/>
-      <c r="E552" s="13"/>
+      <c r="E552" s="18"/>
     </row>
     <row r="553" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B553" s="11"/>
       <c r="D553" s="12"/>
-      <c r="E553" s="13"/>
+      <c r="E553" s="18"/>
     </row>
     <row r="554" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B554" s="11"/>
       <c r="D554" s="12"/>
-      <c r="E554" s="13"/>
+      <c r="E554" s="18"/>
     </row>
     <row r="555" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B555" s="11"/>
       <c r="D555" s="12"/>
-      <c r="E555" s="13"/>
+      <c r="E555" s="18"/>
     </row>
     <row r="556" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B556" s="11"/>
       <c r="D556" s="12"/>
-      <c r="E556" s="13"/>
+      <c r="E556" s="18"/>
     </row>
     <row r="557" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B557" s="11"/>
       <c r="D557" s="12"/>
-      <c r="E557" s="13"/>
+      <c r="E557" s="18"/>
     </row>
     <row r="558" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B558" s="11"/>
       <c r="D558" s="12"/>
-      <c r="E558" s="13"/>
+      <c r="E558" s="18"/>
     </row>
     <row r="559" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B559" s="11"/>
       <c r="D559" s="12"/>
-      <c r="E559" s="13"/>
+      <c r="E559" s="18"/>
     </row>
     <row r="560" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B560" s="11"/>
       <c r="D560" s="12"/>
-      <c r="E560" s="13"/>
+      <c r="E560" s="18"/>
     </row>
     <row r="561" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B561" s="11"/>
       <c r="D561" s="12"/>
-      <c r="E561" s="13"/>
+      <c r="E561" s="18"/>
     </row>
     <row r="562" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B562" s="11"/>
       <c r="D562" s="12"/>
-      <c r="E562" s="13"/>
+      <c r="E562" s="18"/>
     </row>
     <row r="563" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B563" s="11"/>
       <c r="D563" s="12"/>
-      <c r="E563" s="13"/>
+      <c r="E563" s="18"/>
     </row>
     <row r="564" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B564" s="11"/>
       <c r="D564" s="12"/>
-      <c r="E564" s="13"/>
+      <c r="E564" s="18"/>
     </row>
     <row r="565" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B565" s="11"/>
       <c r="D565" s="12"/>
-      <c r="E565" s="13"/>
+      <c r="E565" s="18"/>
     </row>
     <row r="566" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B566" s="11"/>
       <c r="D566" s="12"/>
-      <c r="E566" s="13"/>
+      <c r="E566" s="18"/>
     </row>
     <row r="567" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B567" s="11"/>
       <c r="D567" s="12"/>
-      <c r="E567" s="13"/>
+      <c r="E567" s="18"/>
     </row>
     <row r="568" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B568" s="11"/>
       <c r="D568" s="12"/>
-      <c r="E568" s="13"/>
+      <c r="E568" s="18"/>
     </row>
     <row r="569" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B569" s="11"/>
       <c r="D569" s="12"/>
-      <c r="E569" s="13"/>
+      <c r="E569" s="18"/>
     </row>
     <row r="570" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B570" s="11"/>
       <c r="D570" s="12"/>
-      <c r="E570" s="13"/>
+      <c r="E570" s="18"/>
     </row>
     <row r="571" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B571" s="11"/>
       <c r="D571" s="12"/>
-      <c r="E571" s="13"/>
+      <c r="E571" s="18"/>
     </row>
     <row r="572" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B572" s="11"/>
       <c r="D572" s="12"/>
-      <c r="E572" s="13"/>
+      <c r="E572" s="18"/>
     </row>
     <row r="573" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B573" s="11"/>
       <c r="D573" s="12"/>
-      <c r="E573" s="13"/>
+      <c r="E573" s="18"/>
     </row>
     <row r="574" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B574" s="11"/>
       <c r="D574" s="12"/>
-      <c r="E574" s="13"/>
+      <c r="E574" s="18"/>
     </row>
     <row r="575" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B575" s="11"/>
       <c r="D575" s="12"/>
-      <c r="E575" s="13"/>
+      <c r="E575" s="18"/>
     </row>
     <row r="576" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B576" s="11"/>
       <c r="D576" s="12"/>
-      <c r="E576" s="13"/>
+      <c r="E576" s="18"/>
     </row>
     <row r="577" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B577" s="11"/>
       <c r="D577" s="12"/>
-      <c r="E577" s="13"/>
+      <c r="E577" s="18"/>
     </row>
     <row r="578" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B578" s="11"/>
       <c r="D578" s="12"/>
-      <c r="E578" s="13"/>
+      <c r="E578" s="18"/>
     </row>
     <row r="579" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B579" s="11"/>
       <c r="D579" s="12"/>
-      <c r="E579" s="13"/>
+      <c r="E579" s="18"/>
     </row>
     <row r="580" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B580" s="11"/>
       <c r="D580" s="12"/>
-      <c r="E580" s="13"/>
+      <c r="E580" s="18"/>
     </row>
     <row r="581" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B581" s="11"/>
       <c r="D581" s="12"/>
-      <c r="E581" s="13"/>
+      <c r="E581" s="18"/>
     </row>
     <row r="582" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B582" s="11"/>
       <c r="D582" s="12"/>
-      <c r="E582" s="13"/>
+      <c r="E582" s="18"/>
     </row>
     <row r="583" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B583" s="11"/>
       <c r="D583" s="12"/>
-      <c r="E583" s="13"/>
+      <c r="E583" s="18"/>
     </row>
     <row r="584" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B584" s="11"/>
       <c r="D584" s="12"/>
-      <c r="E584" s="13"/>
+      <c r="E584" s="18"/>
     </row>
     <row r="585" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B585" s="11"/>
       <c r="D585" s="12"/>
-      <c r="E585" s="13"/>
+      <c r="E585" s="18"/>
     </row>
     <row r="586" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B586" s="11"/>
       <c r="D586" s="12"/>
-      <c r="E586" s="13"/>
+      <c r="E586" s="18"/>
     </row>
     <row r="587" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B587" s="11"/>
       <c r="D587" s="12"/>
-      <c r="E587" s="13"/>
+      <c r="E587" s="18"/>
     </row>
     <row r="588" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B588" s="11"/>
       <c r="D588" s="12"/>
-      <c r="E588" s="13"/>
+      <c r="E588" s="18"/>
     </row>
     <row r="589" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B589" s="11"/>
       <c r="D589" s="12"/>
-      <c r="E589" s="13"/>
+      <c r="E589" s="18"/>
     </row>
     <row r="590" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B590" s="11"/>
       <c r="D590" s="12"/>
-      <c r="E590" s="13"/>
+      <c r="E590" s="18"/>
     </row>
     <row r="591" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B591" s="11"/>
       <c r="D591" s="12"/>
-      <c r="E591" s="13"/>
+      <c r="E591" s="18"/>
     </row>
     <row r="592" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B592" s="11"/>
       <c r="D592" s="12"/>
-      <c r="E592" s="13"/>
+      <c r="E592" s="18"/>
     </row>
     <row r="593" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B593" s="11"/>
       <c r="D593" s="12"/>
-      <c r="E593" s="13"/>
+      <c r="E593" s="18"/>
     </row>
     <row r="594" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B594" s="11"/>
       <c r="D594" s="12"/>
-      <c r="E594" s="13"/>
+      <c r="E594" s="18"/>
     </row>
     <row r="595" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B595" s="11"/>
       <c r="D595" s="12"/>
-      <c r="E595" s="13"/>
+      <c r="E595" s="18"/>
     </row>
     <row r="596" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B596" s="11"/>
       <c r="D596" s="12"/>
-      <c r="E596" s="13"/>
+      <c r="E596" s="18"/>
     </row>
     <row r="597" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B597" s="11"/>
       <c r="D597" s="12"/>
-      <c r="E597" s="13"/>
+      <c r="E597" s="18"/>
     </row>
     <row r="598" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B598" s="11"/>
       <c r="D598" s="12"/>
-      <c r="E598" s="13"/>
+      <c r="E598" s="18"/>
     </row>
     <row r="599" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B599" s="11"/>
       <c r="D599" s="12"/>
-      <c r="E599" s="13"/>
+      <c r="E599" s="18"/>
     </row>
     <row r="600" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B600" s="11"/>
       <c r="D600" s="12"/>
-      <c r="E600" s="13"/>
+      <c r="E600" s="18"/>
     </row>
     <row r="601" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B601" s="11"/>
       <c r="D601" s="12"/>
-      <c r="E601" s="13"/>
+      <c r="E601" s="18"/>
     </row>
     <row r="602" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B602" s="11"/>
       <c r="D602" s="12"/>
-      <c r="E602" s="13"/>
+      <c r="E602" s="18"/>
     </row>
     <row r="603" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B603" s="11"/>
       <c r="D603" s="12"/>
-      <c r="E603" s="13"/>
+      <c r="E603" s="18"/>
     </row>
     <row r="604" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B604" s="11"/>
       <c r="D604" s="12"/>
-      <c r="E604" s="13"/>
+      <c r="E604" s="18"/>
     </row>
     <row r="605" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B605" s="11"/>
       <c r="D605" s="12"/>
-      <c r="E605" s="13"/>
+      <c r="E605" s="18"/>
     </row>
     <row r="606" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B606" s="11"/>
       <c r="D606" s="12"/>
-      <c r="E606" s="13"/>
+      <c r="E606" s="18"/>
     </row>
     <row r="607" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B607" s="11"/>
       <c r="D607" s="12"/>
-      <c r="E607" s="13"/>
+      <c r="E607" s="18"/>
     </row>
     <row r="608" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B608" s="11"/>
       <c r="D608" s="12"/>
-      <c r="E608" s="13"/>
+      <c r="E608" s="18"/>
     </row>
     <row r="609" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B609" s="11"/>
       <c r="D609" s="12"/>
-      <c r="E609" s="13"/>
+      <c r="E609" s="18"/>
     </row>
     <row r="610" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B610" s="11"/>
       <c r="D610" s="12"/>
-      <c r="E610" s="13"/>
+      <c r="E610" s="18"/>
     </row>
     <row r="611" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B611" s="11"/>
       <c r="D611" s="12"/>
-      <c r="E611" s="13"/>
+      <c r="E611" s="18"/>
     </row>
     <row r="612" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B612" s="11"/>
       <c r="D612" s="12"/>
-      <c r="E612" s="13"/>
+      <c r="E612" s="18"/>
     </row>
     <row r="613" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B613" s="11"/>
       <c r="D613" s="12"/>
-      <c r="E613" s="13"/>
+      <c r="E613" s="18"/>
     </row>
     <row r="614" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B614" s="11"/>
       <c r="D614" s="12"/>
-      <c r="E614" s="13"/>
+      <c r="E614" s="18"/>
     </row>
     <row r="615" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B615" s="11"/>
       <c r="D615" s="12"/>
-      <c r="E615" s="13"/>
+      <c r="E615" s="18"/>
     </row>
     <row r="616" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B616" s="11"/>
       <c r="D616" s="12"/>
-      <c r="E616" s="13"/>
+      <c r="E616" s="18"/>
     </row>
     <row r="617" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B617" s="11"/>
       <c r="D617" s="12"/>
-      <c r="E617" s="13"/>
+      <c r="E617" s="18"/>
     </row>
     <row r="618" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B618" s="11"/>
       <c r="D618" s="12"/>
-      <c r="E618" s="13"/>
+      <c r="E618" s="18"/>
     </row>
     <row r="619" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B619" s="11"/>
       <c r="D619" s="12"/>
-      <c r="E619" s="13"/>
+      <c r="E619" s="18"/>
     </row>
     <row r="620" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B620" s="11"/>
       <c r="D620" s="12"/>
-      <c r="E620" s="13"/>
+      <c r="E620" s="18"/>
     </row>
     <row r="621" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B621" s="11"/>
       <c r="D621" s="12"/>
-      <c r="E621" s="13"/>
+      <c r="E621" s="18"/>
     </row>
     <row r="622" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B622" s="11"/>
       <c r="D622" s="12"/>
-      <c r="E622" s="13"/>
+      <c r="E622" s="18"/>
     </row>
     <row r="623" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B623" s="11"/>
       <c r="D623" s="12"/>
-      <c r="E623" s="13"/>
+      <c r="E623" s="18"/>
     </row>
     <row r="624" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B624" s="11"/>
       <c r="D624" s="12"/>
-      <c r="E624" s="13"/>
+      <c r="E624" s="18"/>
     </row>
     <row r="625" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B625" s="11"/>
       <c r="D625" s="12"/>
-      <c r="E625" s="13"/>
+      <c r="E625" s="18"/>
     </row>
     <row r="626" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B626" s="11"/>
       <c r="D626" s="12"/>
-      <c r="E626" s="13"/>
+      <c r="E626" s="18"/>
     </row>
     <row r="627" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B627" s="11"/>
       <c r="D627" s="12"/>
-      <c r="E627" s="13"/>
+      <c r="E627" s="18"/>
     </row>
     <row r="628" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B628" s="11"/>
       <c r="D628" s="12"/>
-      <c r="E628" s="13"/>
+      <c r="E628" s="18"/>
     </row>
     <row r="629" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B629" s="11"/>
       <c r="D629" s="12"/>
-      <c r="E629" s="13"/>
+      <c r="E629" s="18"/>
     </row>
     <row r="630" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B630" s="11"/>
       <c r="D630" s="12"/>
-      <c r="E630" s="13"/>
+      <c r="E630" s="18"/>
     </row>
     <row r="631" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B631" s="11"/>
       <c r="D631" s="12"/>
-      <c r="E631" s="13"/>
+      <c r="E631" s="18"/>
     </row>
     <row r="632" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B632" s="11"/>
       <c r="D632" s="12"/>
-      <c r="E632" s="13"/>
+      <c r="E632" s="18"/>
     </row>
     <row r="633" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B633" s="11"/>
       <c r="D633" s="12"/>
-      <c r="E633" s="13"/>
+      <c r="E633" s="18"/>
     </row>
     <row r="634" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B634" s="11"/>
       <c r="D634" s="12"/>
-      <c r="E634" s="13"/>
+      <c r="E634" s="18"/>
     </row>
     <row r="635" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B635" s="11"/>
       <c r="D635" s="12"/>
-      <c r="E635" s="13"/>
+      <c r="E635" s="18"/>
     </row>
     <row r="636" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B636" s="11"/>
       <c r="D636" s="12"/>
-      <c r="E636" s="13"/>
+      <c r="E636" s="18"/>
     </row>
     <row r="637" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B637" s="11"/>
       <c r="D637" s="12"/>
-      <c r="E637" s="13"/>
+      <c r="E637" s="18"/>
     </row>
     <row r="638" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B638" s="11"/>
       <c r="D638" s="12"/>
-      <c r="E638" s="13"/>
+      <c r="E638" s="18"/>
     </row>
     <row r="639" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B639" s="11"/>
       <c r="D639" s="12"/>
-      <c r="E639" s="13"/>
+      <c r="E639" s="18"/>
     </row>
     <row r="640" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B640" s="11"/>
       <c r="D640" s="12"/>
-      <c r="E640" s="13"/>
+      <c r="E640" s="18"/>
     </row>
     <row r="641" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B641" s="11"/>
       <c r="D641" s="12"/>
-      <c r="E641" s="13"/>
+      <c r="E641" s="18"/>
     </row>
     <row r="642" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B642" s="11"/>
       <c r="D642" s="12"/>
-      <c r="E642" s="13"/>
+      <c r="E642" s="18"/>
     </row>
     <row r="643" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B643" s="11"/>
       <c r="D643" s="12"/>
-      <c r="E643" s="13"/>
+      <c r="E643" s="18"/>
     </row>
     <row r="644" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B644" s="11"/>
       <c r="D644" s="12"/>
-      <c r="E644" s="13"/>
+      <c r="E644" s="18"/>
     </row>
     <row r="645" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B645" s="11"/>
       <c r="D645" s="12"/>
-      <c r="E645" s="13"/>
+      <c r="E645" s="18"/>
     </row>
     <row r="646" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B646" s="11"/>
       <c r="D646" s="12"/>
-      <c r="E646" s="13"/>
+      <c r="E646" s="18"/>
     </row>
     <row r="647" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B647" s="11"/>
       <c r="D647" s="12"/>
-      <c r="E647" s="13"/>
+      <c r="E647" s="18"/>
     </row>
     <row r="648" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B648" s="11"/>
       <c r="D648" s="12"/>
-      <c r="E648" s="13"/>
+      <c r="E648" s="18"/>
     </row>
     <row r="649" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B649" s="11"/>
       <c r="D649" s="12"/>
-      <c r="E649" s="13"/>
+      <c r="E649" s="18"/>
     </row>
     <row r="650" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B650" s="11"/>
       <c r="D650" s="12"/>
-      <c r="E650" s="13"/>
+      <c r="E650" s="18"/>
     </row>
     <row r="651" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B651" s="11"/>
       <c r="D651" s="12"/>
-      <c r="E651" s="13"/>
+      <c r="E651" s="18"/>
     </row>
     <row r="652" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B652" s="11"/>
       <c r="D652" s="12"/>
-      <c r="E652" s="13"/>
+      <c r="E652" s="18"/>
     </row>
     <row r="653" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B653" s="11"/>
       <c r="D653" s="12"/>
-      <c r="E653" s="13"/>
+      <c r="E653" s="18"/>
     </row>
     <row r="654" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B654" s="11"/>
       <c r="D654" s="12"/>
-      <c r="E654" s="13"/>
+      <c r="E654" s="18"/>
     </row>
     <row r="655" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B655" s="11"/>
       <c r="D655" s="12"/>
-      <c r="E655" s="13"/>
+      <c r="E655" s="18"/>
     </row>
     <row r="656" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B656" s="11"/>
       <c r="D656" s="12"/>
-      <c r="E656" s="13"/>
+      <c r="E656" s="18"/>
     </row>
     <row r="657" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B657" s="11"/>
       <c r="D657" s="12"/>
-      <c r="E657" s="13"/>
+      <c r="E657" s="18"/>
     </row>
     <row r="658" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B658" s="11"/>
       <c r="D658" s="12"/>
-      <c r="E658" s="13"/>
+      <c r="E658" s="18"/>
     </row>
     <row r="659" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B659" s="11"/>
       <c r="D659" s="12"/>
-      <c r="E659" s="13"/>
+      <c r="E659" s="18"/>
     </row>
     <row r="660" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B660" s="11"/>
       <c r="D660" s="12"/>
-      <c r="E660" s="13"/>
+      <c r="E660" s="18"/>
     </row>
     <row r="661" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B661" s="11"/>
       <c r="D661" s="12"/>
-      <c r="E661" s="13"/>
+      <c r="E661" s="18"/>
     </row>
     <row r="662" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B662" s="11"/>
       <c r="D662" s="12"/>
-      <c r="E662" s="13"/>
+      <c r="E662" s="18"/>
     </row>
     <row r="663" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B663" s="11"/>
       <c r="D663" s="12"/>
-      <c r="E663" s="13"/>
+      <c r="E663" s="18"/>
     </row>
     <row r="664" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B664" s="11"/>
       <c r="D664" s="12"/>
-      <c r="E664" s="13"/>
+      <c r="E664" s="18"/>
     </row>
     <row r="665" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B665" s="11"/>
       <c r="D665" s="12"/>
-      <c r="E665" s="13"/>
+      <c r="E665" s="18"/>
     </row>
     <row r="666" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B666" s="11"/>
       <c r="D666" s="12"/>
-      <c r="E666" s="13"/>
+      <c r="E666" s="18"/>
     </row>
     <row r="667" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B667" s="11"/>
       <c r="D667" s="12"/>
-      <c r="E667" s="13"/>
+      <c r="E667" s="18"/>
     </row>
     <row r="668" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B668" s="11"/>
       <c r="D668" s="12"/>
-      <c r="E668" s="13"/>
+      <c r="E668" s="18"/>
     </row>
     <row r="669" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B669" s="11"/>
       <c r="D669" s="12"/>
-      <c r="E669" s="13"/>
+      <c r="E669" s="18"/>
     </row>
     <row r="670" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B670" s="11"/>
       <c r="D670" s="12"/>
-      <c r="E670" s="13"/>
+      <c r="E670" s="18"/>
     </row>
     <row r="671" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B671" s="11"/>
       <c r="D671" s="12"/>
-      <c r="E671" s="13"/>
+      <c r="E671" s="18"/>
     </row>
     <row r="672" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B672" s="11"/>
       <c r="D672" s="12"/>
-      <c r="E672" s="13"/>
+      <c r="E672" s="18"/>
     </row>
     <row r="673" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B673" s="11"/>
       <c r="D673" s="12"/>
-      <c r="E673" s="13"/>
+      <c r="E673" s="18"/>
     </row>
     <row r="674" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B674" s="11"/>
       <c r="D674" s="12"/>
-      <c r="E674" s="13"/>
+      <c r="E674" s="18"/>
     </row>
     <row r="675" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B675" s="11"/>
       <c r="D675" s="12"/>
-      <c r="E675" s="13"/>
+      <c r="E675" s="18"/>
     </row>
     <row r="676" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B676" s="11"/>
       <c r="D676" s="12"/>
-      <c r="E676" s="13"/>
+      <c r="E676" s="18"/>
     </row>
     <row r="677" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B677" s="11"/>
       <c r="D677" s="12"/>
-      <c r="E677" s="13"/>
+      <c r="E677" s="18"/>
     </row>
     <row r="678" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B678" s="11"/>
       <c r="D678" s="12"/>
-      <c r="E678" s="13"/>
+      <c r="E678" s="18"/>
     </row>
     <row r="679" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B679" s="11"/>
       <c r="D679" s="12"/>
-      <c r="E679" s="13"/>
+      <c r="E679" s="18"/>
     </row>
     <row r="680" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B680" s="11"/>
       <c r="D680" s="12"/>
-      <c r="E680" s="13"/>
+      <c r="E680" s="18"/>
     </row>
     <row r="681" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B681" s="11"/>
       <c r="D681" s="12"/>
-      <c r="E681" s="13"/>
+      <c r="E681" s="18"/>
     </row>
     <row r="682" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B682" s="11"/>
       <c r="D682" s="12"/>
-      <c r="E682" s="13"/>
+      <c r="E682" s="18"/>
     </row>
     <row r="683" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B683" s="11"/>
       <c r="D683" s="12"/>
-      <c r="E683" s="13"/>
+      <c r="E683" s="18"/>
     </row>
     <row r="684" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B684" s="11"/>
       <c r="D684" s="12"/>
-      <c r="E684" s="13"/>
+      <c r="E684" s="18"/>
     </row>
     <row r="685" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B685" s="11"/>
       <c r="D685" s="12"/>
-      <c r="E685" s="13"/>
+      <c r="E685" s="18"/>
     </row>
     <row r="686" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B686" s="11"/>
       <c r="D686" s="12"/>
-      <c r="E686" s="13"/>
+      <c r="E686" s="18"/>
     </row>
     <row r="687" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B687" s="11"/>
       <c r="D687" s="12"/>
-      <c r="E687" s="13"/>
+      <c r="E687" s="18"/>
     </row>
     <row r="688" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B688" s="11"/>
       <c r="D688" s="12"/>
-      <c r="E688" s="13"/>
+      <c r="E688" s="18"/>
     </row>
     <row r="689" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B689" s="11"/>
       <c r="D689" s="12"/>
-      <c r="E689" s="13"/>
+      <c r="E689" s="18"/>
     </row>
     <row r="690" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B690" s="11"/>
       <c r="D690" s="12"/>
-      <c r="E690" s="13"/>
+      <c r="E690" s="18"/>
     </row>
     <row r="691" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B691" s="11"/>
       <c r="D691" s="12"/>
-      <c r="E691" s="13"/>
+      <c r="E691" s="18"/>
     </row>
     <row r="692" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B692" s="11"/>
       <c r="D692" s="12"/>
-      <c r="E692" s="13"/>
+      <c r="E692" s="18"/>
     </row>
     <row r="693" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B693" s="11"/>
       <c r="D693" s="12"/>
-      <c r="E693" s="13"/>
+      <c r="E693" s="18"/>
     </row>
     <row r="694" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B694" s="11"/>
       <c r="D694" s="12"/>
-      <c r="E694" s="13"/>
+      <c r="E694" s="18"/>
     </row>
     <row r="695" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B695" s="11"/>
       <c r="D695" s="12"/>
-      <c r="E695" s="13"/>
+      <c r="E695" s="18"/>
     </row>
     <row r="696" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B696" s="11"/>
       <c r="D696" s="12"/>
-      <c r="E696" s="13"/>
+      <c r="E696" s="18"/>
     </row>
     <row r="697" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B697" s="11"/>
       <c r="D697" s="12"/>
-      <c r="E697" s="13"/>
+      <c r="E697" s="18"/>
     </row>
     <row r="698" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B698" s="11"/>
       <c r="D698" s="12"/>
-      <c r="E698" s="13"/>
+      <c r="E698" s="18"/>
     </row>
     <row r="699" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B699" s="11"/>
       <c r="D699" s="12"/>
-      <c r="E699" s="13"/>
+      <c r="E699" s="18"/>
     </row>
     <row r="700" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B700" s="11"/>
       <c r="D700" s="12"/>
-      <c r="E700" s="13"/>
+      <c r="E700" s="18"/>
     </row>
     <row r="701" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B701" s="11"/>
       <c r="D701" s="12"/>
-      <c r="E701" s="13"/>
+      <c r="E701" s="18"/>
     </row>
     <row r="702" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B702" s="11"/>
       <c r="D702" s="12"/>
-      <c r="E702" s="13"/>
+      <c r="E702" s="18"/>
     </row>
     <row r="703" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B703" s="11"/>
       <c r="D703" s="12"/>
-      <c r="E703" s="13"/>
+      <c r="E703" s="18"/>
     </row>
     <row r="704" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B704" s="11"/>
       <c r="D704" s="12"/>
-      <c r="E704" s="13"/>
+      <c r="E704" s="18"/>
     </row>
     <row r="705" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B705" s="11"/>
       <c r="D705" s="12"/>
-      <c r="E705" s="13"/>
+      <c r="E705" s="18"/>
     </row>
     <row r="706" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B706" s="11"/>
       <c r="D706" s="12"/>
-      <c r="E706" s="13"/>
+      <c r="E706" s="18"/>
     </row>
     <row r="707" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B707" s="11"/>
       <c r="D707" s="12"/>
-      <c r="E707" s="13"/>
+      <c r="E707" s="18"/>
     </row>
     <row r="708" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B708" s="11"/>
       <c r="D708" s="12"/>
-      <c r="E708" s="13"/>
+      <c r="E708" s="18"/>
     </row>
     <row r="709" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B709" s="11"/>
       <c r="D709" s="12"/>
-      <c r="E709" s="13"/>
+      <c r="E709" s="18"/>
     </row>
     <row r="710" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B710" s="11"/>
       <c r="D710" s="12"/>
-      <c r="E710" s="13"/>
+      <c r="E710" s="18"/>
     </row>
     <row r="711" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B711" s="11"/>
       <c r="D711" s="12"/>
-      <c r="E711" s="13"/>
+      <c r="E711" s="18"/>
     </row>
     <row r="712" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B712" s="11"/>
       <c r="D712" s="12"/>
-      <c r="E712" s="13"/>
+      <c r="E712" s="18"/>
     </row>
     <row r="713" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B713" s="11"/>
       <c r="D713" s="12"/>
-      <c r="E713" s="13"/>
+      <c r="E713" s="18"/>
     </row>
     <row r="714" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B714" s="11"/>
       <c r="D714" s="12"/>
-      <c r="E714" s="13"/>
+      <c r="E714" s="18"/>
     </row>
     <row r="715" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B715" s="11"/>
       <c r="D715" s="12"/>
-      <c r="E715" s="13"/>
+      <c r="E715" s="18"/>
     </row>
     <row r="716" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B716" s="11"/>
       <c r="D716" s="12"/>
-      <c r="E716" s="13"/>
+      <c r="E716" s="18"/>
     </row>
     <row r="717" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B717" s="11"/>
       <c r="D717" s="12"/>
-      <c r="E717" s="13"/>
+      <c r="E717" s="18"/>
     </row>
     <row r="718" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B718" s="11"/>
       <c r="D718" s="12"/>
-      <c r="E718" s="13"/>
+      <c r="E718" s="18"/>
     </row>
     <row r="719" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B719" s="11"/>
       <c r="D719" s="12"/>
-      <c r="E719" s="13"/>
+      <c r="E719" s="18"/>
     </row>
     <row r="720" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B720" s="11"/>
       <c r="D720" s="12"/>
-      <c r="E720" s="13"/>
+      <c r="E720" s="18"/>
     </row>
     <row r="721" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B721" s="11"/>
       <c r="D721" s="12"/>
-      <c r="E721" s="13"/>
+      <c r="E721" s="18"/>
     </row>
     <row r="722" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B722" s="11"/>
       <c r="D722" s="12"/>
-      <c r="E722" s="13"/>
+      <c r="E722" s="18"/>
     </row>
     <row r="723" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B723" s="11"/>
       <c r="D723" s="12"/>
-      <c r="E723" s="13"/>
+      <c r="E723" s="18"/>
     </row>
     <row r="724" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B724" s="11"/>
       <c r="D724" s="12"/>
-      <c r="E724" s="13"/>
+      <c r="E724" s="18"/>
     </row>
     <row r="725" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B725" s="11"/>
       <c r="D725" s="12"/>
-      <c r="E725" s="13"/>
+      <c r="E725" s="18"/>
     </row>
     <row r="726" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B726" s="11"/>
       <c r="D726" s="12"/>
-      <c r="E726" s="13"/>
+      <c r="E726" s="18"/>
     </row>
     <row r="727" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B727" s="11"/>
       <c r="D727" s="12"/>
-      <c r="E727" s="13"/>
+      <c r="E727" s="18"/>
     </row>
     <row r="728" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B728" s="11"/>
       <c r="D728" s="12"/>
-      <c r="E728" s="13"/>
+      <c r="E728" s="18"/>
     </row>
     <row r="729" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B729" s="11"/>
       <c r="D729" s="12"/>
-      <c r="E729" s="13"/>
+      <c r="E729" s="18"/>
     </row>
     <row r="730" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B730" s="11"/>
       <c r="D730" s="12"/>
-      <c r="E730" s="13"/>
+      <c r="E730" s="18"/>
     </row>
     <row r="731" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B731" s="11"/>
       <c r="D731" s="12"/>
-      <c r="E731" s="13"/>
+      <c r="E731" s="18"/>
     </row>
     <row r="732" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B732" s="11"/>
       <c r="D732" s="12"/>
-      <c r="E732" s="13"/>
+      <c r="E732" s="18"/>
     </row>
     <row r="733" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B733" s="11"/>
       <c r="D733" s="12"/>
-      <c r="E733" s="13"/>
+      <c r="E733" s="18"/>
     </row>
     <row r="734" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B734" s="11"/>
       <c r="D734" s="12"/>
-      <c r="E734" s="13"/>
+      <c r="E734" s="18"/>
     </row>
     <row r="735" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B735" s="11"/>
       <c r="D735" s="12"/>
-      <c r="E735" s="13"/>
+      <c r="E735" s="18"/>
     </row>
     <row r="736" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B736" s="11"/>
       <c r="D736" s="12"/>
-      <c r="E736" s="13"/>
+      <c r="E736" s="18"/>
     </row>
     <row r="737" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B737" s="11"/>
       <c r="D737" s="12"/>
-      <c r="E737" s="13"/>
+      <c r="E737" s="18"/>
     </row>
     <row r="738" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B738" s="11"/>
       <c r="D738" s="12"/>
-      <c r="E738" s="13"/>
+      <c r="E738" s="18"/>
     </row>
     <row r="739" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B739" s="11"/>
       <c r="D739" s="12"/>
-      <c r="E739" s="13"/>
+      <c r="E739" s="18"/>
     </row>
     <row r="740" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B740" s="11"/>
       <c r="D740" s="12"/>
-      <c r="E740" s="13"/>
+      <c r="E740" s="18"/>
     </row>
     <row r="741" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B741" s="11"/>
       <c r="D741" s="12"/>
-      <c r="E741" s="13"/>
+      <c r="E741" s="18"/>
     </row>
     <row r="742" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B742" s="11"/>
       <c r="D742" s="12"/>
-      <c r="E742" s="13"/>
+      <c r="E742" s="18"/>
     </row>
     <row r="743" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B743" s="11"/>
       <c r="D743" s="12"/>
-      <c r="E743" s="13"/>
+      <c r="E743" s="18"/>
     </row>
     <row r="744" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B744" s="11"/>
       <c r="D744" s="12"/>
-      <c r="E744" s="13"/>
+      <c r="E744" s="18"/>
     </row>
     <row r="745" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B745" s="11"/>
       <c r="D745" s="12"/>
-      <c r="E745" s="13"/>
+      <c r="E745" s="18"/>
     </row>
     <row r="746" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B746" s="11"/>
       <c r="D746" s="12"/>
-      <c r="E746" s="13"/>
+      <c r="E746" s="18"/>
     </row>
     <row r="747" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B747" s="11"/>
       <c r="D747" s="12"/>
-      <c r="E747" s="13"/>
+      <c r="E747" s="18"/>
     </row>
     <row r="748" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B748" s="11"/>
       <c r="D748" s="12"/>
-      <c r="E748" s="13"/>
+      <c r="E748" s="18"/>
     </row>
     <row r="749" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B749" s="11"/>
       <c r="D749" s="12"/>
-      <c r="E749" s="13"/>
+      <c r="E749" s="18"/>
     </row>
     <row r="750" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B750" s="11"/>
       <c r="D750" s="12"/>
-      <c r="E750" s="13"/>
+      <c r="E750" s="18"/>
     </row>
     <row r="751" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B751" s="11"/>
       <c r="D751" s="12"/>
-      <c r="E751" s="13"/>
+      <c r="E751" s="18"/>
     </row>
     <row r="752" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B752" s="11"/>
       <c r="D752" s="12"/>
-      <c r="E752" s="13"/>
+      <c r="E752" s="18"/>
     </row>
     <row r="753" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B753" s="11"/>
       <c r="D753" s="12"/>
-      <c r="E753" s="13"/>
+      <c r="E753" s="18"/>
     </row>
     <row r="754" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B754" s="11"/>
       <c r="D754" s="12"/>
-      <c r="E754" s="13"/>
+      <c r="E754" s="18"/>
     </row>
     <row r="755" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B755" s="11"/>
       <c r="D755" s="12"/>
-      <c r="E755" s="13"/>
+      <c r="E755" s="18"/>
     </row>
     <row r="756" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B756" s="11"/>
       <c r="D756" s="12"/>
-      <c r="E756" s="13"/>
+      <c r="E756" s="18"/>
     </row>
     <row r="757" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B757" s="11"/>
       <c r="D757" s="12"/>
-      <c r="E757" s="13"/>
+      <c r="E757" s="18"/>
     </row>
     <row r="758" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B758" s="11"/>
       <c r="D758" s="12"/>
-      <c r="E758" s="13"/>
+      <c r="E758" s="18"/>
     </row>
     <row r="759" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B759" s="11"/>
       <c r="D759" s="12"/>
-      <c r="E759" s="13"/>
+      <c r="E759" s="18"/>
     </row>
     <row r="760" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B760" s="11"/>
       <c r="D760" s="12"/>
-      <c r="E760" s="13"/>
+      <c r="E760" s="18"/>
     </row>
     <row r="761" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B761" s="11"/>
       <c r="D761" s="12"/>
-      <c r="E761" s="13"/>
+      <c r="E761" s="18"/>
     </row>
     <row r="762" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B762" s="11"/>
       <c r="D762" s="12"/>
-      <c r="E762" s="13"/>
+      <c r="E762" s="18"/>
     </row>
     <row r="763" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B763" s="11"/>
       <c r="D763" s="12"/>
-      <c r="E763" s="13"/>
+      <c r="E763" s="18"/>
     </row>
     <row r="764" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B764" s="11"/>
       <c r="D764" s="12"/>
-      <c r="E764" s="13"/>
+      <c r="E764" s="18"/>
     </row>
     <row r="765" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B765" s="11"/>
       <c r="D765" s="12"/>
-      <c r="E765" s="13"/>
+      <c r="E765" s="18"/>
     </row>
     <row r="766" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B766" s="11"/>
       <c r="D766" s="12"/>
-      <c r="E766" s="13"/>
+      <c r="E766" s="18"/>
     </row>
     <row r="767" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B767" s="11"/>
       <c r="D767" s="12"/>
-      <c r="E767" s="13"/>
+      <c r="E767" s="18"/>
     </row>
     <row r="768" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B768" s="11"/>
       <c r="D768" s="12"/>
-      <c r="E768" s="13"/>
+      <c r="E768" s="18"/>
     </row>
     <row r="769" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B769" s="11"/>
       <c r="D769" s="12"/>
-      <c r="E769" s="13"/>
+      <c r="E769" s="18"/>
     </row>
     <row r="770" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B770" s="11"/>
       <c r="D770" s="12"/>
-      <c r="E770" s="13"/>
+      <c r="E770" s="18"/>
     </row>
     <row r="771" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B771" s="11"/>
       <c r="D771" s="12"/>
-      <c r="E771" s="13"/>
+      <c r="E771" s="18"/>
     </row>
     <row r="772" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B772" s="11"/>
       <c r="D772" s="12"/>
-      <c r="E772" s="13"/>
+      <c r="E772" s="18"/>
     </row>
     <row r="773" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B773" s="11"/>
       <c r="D773" s="12"/>
-      <c r="E773" s="13"/>
+      <c r="E773" s="18"/>
     </row>
     <row r="774" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B774" s="11"/>
       <c r="D774" s="12"/>
-      <c r="E774" s="13"/>
+      <c r="E774" s="18"/>
     </row>
     <row r="775" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B775" s="11"/>
       <c r="D775" s="12"/>
-      <c r="E775" s="13"/>
+      <c r="E775" s="18"/>
     </row>
     <row r="776" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B776" s="11"/>
       <c r="D776" s="12"/>
-      <c r="E776" s="13"/>
+      <c r="E776" s="18"/>
     </row>
     <row r="777" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B777" s="11"/>
       <c r="D777" s="12"/>
-      <c r="E777" s="13"/>
+      <c r="E777" s="18"/>
     </row>
     <row r="778" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B778" s="11"/>
       <c r="D778" s="12"/>
-      <c r="E778" s="13"/>
+      <c r="E778" s="18"/>
     </row>
     <row r="779" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B779" s="11"/>
       <c r="D779" s="12"/>
-      <c r="E779" s="13"/>
+      <c r="E779" s="18"/>
     </row>
     <row r="780" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B780" s="11"/>
       <c r="D780" s="12"/>
-      <c r="E780" s="13"/>
+      <c r="E780" s="18"/>
     </row>
     <row r="781" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B781" s="11"/>
       <c r="D781" s="12"/>
-      <c r="E781" s="13"/>
+      <c r="E781" s="18"/>
     </row>
     <row r="782" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B782" s="11"/>
       <c r="D782" s="12"/>
-      <c r="E782" s="13"/>
+      <c r="E782" s="18"/>
     </row>
     <row r="783" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B783" s="11"/>
       <c r="D783" s="12"/>
-      <c r="E783" s="13"/>
+      <c r="E783" s="18"/>
     </row>
     <row r="784" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B784" s="11"/>
       <c r="D784" s="12"/>
-      <c r="E784" s="13"/>
+      <c r="E784" s="18"/>
     </row>
     <row r="785" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B785" s="11"/>
       <c r="D785" s="12"/>
-      <c r="E785" s="13"/>
+      <c r="E785" s="18"/>
     </row>
     <row r="786" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B786" s="11"/>
       <c r="D786" s="12"/>
-      <c r="E786" s="13"/>
+      <c r="E786" s="18"/>
     </row>
     <row r="787" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B787" s="11"/>
       <c r="D787" s="12"/>
-      <c r="E787" s="13"/>
+      <c r="E787" s="18"/>
     </row>
     <row r="788" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B788" s="11"/>
       <c r="D788" s="12"/>
-      <c r="E788" s="13"/>
+      <c r="E788" s="18"/>
     </row>
     <row r="789" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B789" s="11"/>
       <c r="D789" s="12"/>
-      <c r="E789" s="13"/>
+      <c r="E789" s="18"/>
     </row>
     <row r="790" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B790" s="11"/>
       <c r="D790" s="12"/>
-      <c r="E790" s="13"/>
+      <c r="E790" s="18"/>
     </row>
     <row r="791" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B791" s="11"/>
       <c r="D791" s="12"/>
-      <c r="E791" s="13"/>
+      <c r="E791" s="18"/>
     </row>
     <row r="792" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B792" s="11"/>
       <c r="D792" s="12"/>
-      <c r="E792" s="13"/>
+      <c r="E792" s="18"/>
     </row>
     <row r="793" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B793" s="11"/>
       <c r="D793" s="12"/>
-      <c r="E793" s="13"/>
+      <c r="E793" s="18"/>
     </row>
     <row r="794" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B794" s="11"/>
       <c r="D794" s="12"/>
-      <c r="E794" s="13"/>
+      <c r="E794" s="18"/>
     </row>
     <row r="795" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B795" s="11"/>
       <c r="D795" s="12"/>
-      <c r="E795" s="13"/>
+      <c r="E795" s="18"/>
     </row>
     <row r="796" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B796" s="11"/>
       <c r="D796" s="12"/>
-      <c r="E796" s="13"/>
+      <c r="E796" s="18"/>
     </row>
     <row r="797" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B797" s="11"/>
       <c r="D797" s="12"/>
-      <c r="E797" s="13"/>
+      <c r="E797" s="18"/>
     </row>
     <row r="798" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B798" s="11"/>
       <c r="D798" s="12"/>
-      <c r="E798" s="13"/>
+      <c r="E798" s="18"/>
     </row>
     <row r="799" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B799" s="11"/>
       <c r="D799" s="12"/>
-      <c r="E799" s="13"/>
+      <c r="E799" s="18"/>
     </row>
     <row r="800" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B800" s="11"/>
       <c r="D800" s="12"/>
-      <c r="E800" s="13"/>
+      <c r="E800" s="18"/>
     </row>
     <row r="801" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B801" s="11"/>
       <c r="D801" s="12"/>
-      <c r="E801" s="13"/>
+      <c r="E801" s="18"/>
     </row>
     <row r="802" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B802" s="11"/>
       <c r="D802" s="12"/>
-      <c r="E802" s="13"/>
+      <c r="E802" s="18"/>
     </row>
     <row r="803" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B803" s="11"/>
       <c r="D803" s="12"/>
-      <c r="E803" s="13"/>
+      <c r="E803" s="18"/>
     </row>
     <row r="804" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B804" s="11"/>
       <c r="D804" s="12"/>
-      <c r="E804" s="13"/>
+      <c r="E804" s="18"/>
     </row>
     <row r="805" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B805" s="11"/>
       <c r="D805" s="12"/>
-      <c r="E805" s="13"/>
+      <c r="E805" s="18"/>
     </row>
     <row r="806" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B806" s="11"/>
       <c r="D806" s="12"/>
-      <c r="E806" s="13"/>
+      <c r="E806" s="18"/>
     </row>
     <row r="807" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B807" s="11"/>
       <c r="D807" s="12"/>
-      <c r="E807" s="13"/>
+      <c r="E807" s="18"/>
     </row>
     <row r="808" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B808" s="11"/>
       <c r="D808" s="12"/>
-      <c r="E808" s="13"/>
+      <c r="E808" s="18"/>
     </row>
     <row r="809" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B809" s="11"/>
       <c r="D809" s="12"/>
-      <c r="E809" s="13"/>
+      <c r="E809" s="18"/>
     </row>
     <row r="810" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B810" s="11"/>
       <c r="D810" s="12"/>
-      <c r="E810" s="13"/>
+      <c r="E810" s="18"/>
     </row>
     <row r="811" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B811" s="11"/>
       <c r="D811" s="12"/>
-      <c r="E811" s="13"/>
+      <c r="E811" s="18"/>
     </row>
     <row r="812" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B812" s="11"/>
       <c r="D812" s="12"/>
-      <c r="E812" s="13"/>
+      <c r="E812" s="18"/>
     </row>
     <row r="813" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B813" s="11"/>
       <c r="D813" s="12"/>
-      <c r="E813" s="13"/>
+      <c r="E813" s="18"/>
     </row>
     <row r="814" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B814" s="11"/>
       <c r="D814" s="12"/>
-      <c r="E814" s="13"/>
+      <c r="E814" s="18"/>
     </row>
     <row r="815" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B815" s="11"/>
       <c r="D815" s="12"/>
-      <c r="E815" s="13"/>
+      <c r="E815" s="18"/>
     </row>
     <row r="816" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B816" s="11"/>
       <c r="D816" s="12"/>
-      <c r="E816" s="13"/>
+      <c r="E816" s="18"/>
     </row>
     <row r="817" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B817" s="11"/>
       <c r="D817" s="12"/>
-      <c r="E817" s="13"/>
+      <c r="E817" s="18"/>
     </row>
     <row r="818" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B818" s="11"/>
       <c r="D818" s="12"/>
-      <c r="E818" s="13"/>
+      <c r="E818" s="18"/>
     </row>
     <row r="819" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B819" s="11"/>
       <c r="D819" s="12"/>
-      <c r="E819" s="13"/>
+      <c r="E819" s="18"/>
     </row>
     <row r="820" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B820" s="11"/>
       <c r="D820" s="12"/>
-      <c r="E820" s="13"/>
+      <c r="E820" s="18"/>
     </row>
     <row r="821" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B821" s="11"/>
       <c r="D821" s="12"/>
-      <c r="E821" s="13"/>
+      <c r="E821" s="18"/>
     </row>
     <row r="822" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B822" s="11"/>
       <c r="D822" s="12"/>
-      <c r="E822" s="13"/>
+      <c r="E822" s="18"/>
     </row>
     <row r="823" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B823" s="11"/>
       <c r="D823" s="12"/>
-      <c r="E823" s="13"/>
+      <c r="E823" s="18"/>
     </row>
     <row r="824" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B824" s="11"/>
       <c r="D824" s="12"/>
-      <c r="E824" s="13"/>
+      <c r="E824" s="18"/>
     </row>
     <row r="825" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B825" s="11"/>
       <c r="D825" s="12"/>
-      <c r="E825" s="13"/>
+      <c r="E825" s="18"/>
     </row>
     <row r="826" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B826" s="11"/>
       <c r="D826" s="12"/>
-      <c r="E826" s="13"/>
+      <c r="E826" s="18"/>
     </row>
     <row r="827" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B827" s="11"/>
       <c r="D827" s="12"/>
-      <c r="E827" s="13"/>
+      <c r="E827" s="18"/>
     </row>
     <row r="828" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B828" s="11"/>
       <c r="D828" s="12"/>
-      <c r="E828" s="13"/>
+      <c r="E828" s="18"/>
     </row>
     <row r="829" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B829" s="11"/>
       <c r="D829" s="12"/>
-      <c r="E829" s="13"/>
+      <c r="E829" s="18"/>
     </row>
     <row r="830" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B830" s="11"/>
       <c r="D830" s="12"/>
-      <c r="E830" s="13"/>
+      <c r="E830" s="18"/>
     </row>
     <row r="831" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B831" s="11"/>
       <c r="D831" s="12"/>
-      <c r="E831" s="13"/>
+      <c r="E831" s="18"/>
     </row>
     <row r="832" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B832" s="11"/>
       <c r="D832" s="12"/>
-      <c r="E832" s="13"/>
+      <c r="E832" s="18"/>
     </row>
     <row r="833" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B833" s="11"/>
       <c r="D833" s="12"/>
-      <c r="E833" s="13"/>
+      <c r="E833" s="18"/>
     </row>
     <row r="834" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B834" s="11"/>
       <c r="D834" s="12"/>
-      <c r="E834" s="13"/>
+      <c r="E834" s="18"/>
     </row>
     <row r="835" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B835" s="11"/>
       <c r="D835" s="12"/>
-      <c r="E835" s="13"/>
+      <c r="E835" s="18"/>
     </row>
     <row r="836" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B836" s="11"/>
       <c r="D836" s="12"/>
-      <c r="E836" s="13"/>
+      <c r="E836" s="18"/>
     </row>
     <row r="837" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B837" s="11"/>
       <c r="D837" s="12"/>
-      <c r="E837" s="13"/>
+      <c r="E837" s="18"/>
     </row>
     <row r="838" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B838" s="11"/>
       <c r="D838" s="12"/>
-      <c r="E838" s="13"/>
+      <c r="E838" s="18"/>
     </row>
     <row r="839" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B839" s="11"/>
       <c r="D839" s="12"/>
-      <c r="E839" s="13"/>
+      <c r="E839" s="18"/>
     </row>
     <row r="840" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B840" s="11"/>
       <c r="D840" s="12"/>
-      <c r="E840" s="13"/>
+      <c r="E840" s="18"/>
     </row>
     <row r="841" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B841" s="11"/>
       <c r="D841" s="12"/>
-      <c r="E841" s="13"/>
+      <c r="E841" s="18"/>
     </row>
     <row r="842" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B842" s="11"/>
       <c r="D842" s="12"/>
-      <c r="E842" s="13"/>
+      <c r="E842" s="18"/>
     </row>
     <row r="843" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B843" s="11"/>
       <c r="D843" s="12"/>
-      <c r="E843" s="13"/>
+      <c r="E843" s="18"/>
     </row>
     <row r="844" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B844" s="11"/>
       <c r="D844" s="12"/>
-      <c r="E844" s="13"/>
+      <c r="E844" s="18"/>
     </row>
     <row r="845" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B845" s="11"/>
       <c r="D845" s="12"/>
-      <c r="E845" s="13"/>
+      <c r="E845" s="18"/>
     </row>
     <row r="846" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B846" s="11"/>
       <c r="D846" s="12"/>
-      <c r="E846" s="13"/>
+      <c r="E846" s="18"/>
     </row>
     <row r="847" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B847" s="11"/>
       <c r="D847" s="12"/>
-      <c r="E847" s="13"/>
+      <c r="E847" s="18"/>
     </row>
     <row r="848" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B848" s="11"/>
       <c r="D848" s="12"/>
-      <c r="E848" s="13"/>
+      <c r="E848" s="18"/>
     </row>
     <row r="849" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B849" s="11"/>
       <c r="D849" s="12"/>
-      <c r="E849" s="13"/>
+      <c r="E849" s="18"/>
     </row>
     <row r="850" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B850" s="11"/>
       <c r="D850" s="12"/>
-      <c r="E850" s="13"/>
+      <c r="E850" s="18"/>
     </row>
     <row r="851" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B851" s="11"/>
       <c r="D851" s="12"/>
-      <c r="E851" s="13"/>
+      <c r="E851" s="18"/>
     </row>
     <row r="852" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B852" s="11"/>
       <c r="D852" s="12"/>
-      <c r="E852" s="13"/>
+      <c r="E852" s="18"/>
     </row>
     <row r="853" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B853" s="11"/>
       <c r="D853" s="12"/>
-      <c r="E853" s="13"/>
+      <c r="E853" s="18"/>
     </row>
     <row r="854" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B854" s="11"/>
       <c r="D854" s="12"/>
-      <c r="E854" s="13"/>
+      <c r="E854" s="18"/>
     </row>
     <row r="855" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B855" s="11"/>
       <c r="D855" s="12"/>
-      <c r="E855" s="13"/>
+      <c r="E855" s="18"/>
     </row>
     <row r="856" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B856" s="11"/>
       <c r="D856" s="12"/>
-      <c r="E856" s="13"/>
+      <c r="E856" s="18"/>
     </row>
     <row r="857" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B857" s="11"/>
       <c r="D857" s="12"/>
-      <c r="E857" s="13"/>
+      <c r="E857" s="18"/>
     </row>
     <row r="858" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B858" s="11"/>
       <c r="D858" s="12"/>
-      <c r="E858" s="13"/>
+      <c r="E858" s="18"/>
     </row>
     <row r="859" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B859" s="11"/>
       <c r="D859" s="12"/>
-      <c r="E859" s="13"/>
+      <c r="E859" s="18"/>
     </row>
     <row r="860" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B860" s="11"/>
       <c r="D860" s="12"/>
-      <c r="E860" s="13"/>
+      <c r="E860" s="18"/>
     </row>
     <row r="861" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B861" s="11"/>
       <c r="D861" s="12"/>
-      <c r="E861" s="13"/>
+      <c r="E861" s="18"/>
     </row>
     <row r="862" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B862" s="11"/>
       <c r="D862" s="12"/>
-      <c r="E862" s="13"/>
+      <c r="E862" s="18"/>
     </row>
     <row r="863" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B863" s="11"/>
       <c r="D863" s="12"/>
-      <c r="E863" s="13"/>
+      <c r="E863" s="18"/>
     </row>
     <row r="864" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B864" s="11"/>
       <c r="D864" s="12"/>
-      <c r="E864" s="13"/>
+      <c r="E864" s="18"/>
     </row>
     <row r="865" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B865" s="11"/>
       <c r="D865" s="12"/>
-      <c r="E865" s="13"/>
+      <c r="E865" s="18"/>
     </row>
     <row r="866" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B866" s="11"/>
       <c r="D866" s="12"/>
-      <c r="E866" s="13"/>
+      <c r="E866" s="18"/>
     </row>
     <row r="867" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B867" s="11"/>
       <c r="D867" s="12"/>
-      <c r="E867" s="13"/>
+      <c r="E867" s="18"/>
     </row>
     <row r="868" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B868" s="11"/>
       <c r="D868" s="12"/>
-      <c r="E868" s="13"/>
+      <c r="E868" s="18"/>
     </row>
     <row r="869" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B869" s="11"/>
       <c r="D869" s="12"/>
-      <c r="E869" s="13"/>
+      <c r="E869" s="18"/>
     </row>
     <row r="870" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B870" s="11"/>
       <c r="D870" s="12"/>
-      <c r="E870" s="13"/>
+      <c r="E870" s="18"/>
     </row>
     <row r="871" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B871" s="11"/>
       <c r="D871" s="12"/>
-      <c r="E871" s="13"/>
+      <c r="E871" s="18"/>
     </row>
     <row r="872" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B872" s="11"/>
       <c r="D872" s="12"/>
-      <c r="E872" s="13"/>
+      <c r="E872" s="18"/>
     </row>
     <row r="873" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B873" s="11"/>
       <c r="D873" s="12"/>
-      <c r="E873" s="13"/>
+      <c r="E873" s="18"/>
     </row>
     <row r="874" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B874" s="11"/>
       <c r="D874" s="12"/>
-      <c r="E874" s="13"/>
+      <c r="E874" s="18"/>
     </row>
     <row r="875" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B875" s="11"/>
       <c r="D875" s="12"/>
-      <c r="E875" s="13"/>
+      <c r="E875" s="18"/>
     </row>
     <row r="876" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B876" s="11"/>
       <c r="D876" s="12"/>
-      <c r="E876" s="13"/>
+      <c r="E876" s="18"/>
     </row>
     <row r="877" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B877" s="11"/>
       <c r="D877" s="12"/>
-      <c r="E877" s="13"/>
+      <c r="E877" s="18"/>
     </row>
     <row r="878" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B878" s="11"/>
       <c r="D878" s="12"/>
-      <c r="E878" s="13"/>
+      <c r="E878" s="18"/>
     </row>
     <row r="879" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B879" s="11"/>
       <c r="D879" s="12"/>
-      <c r="E879" s="13"/>
+      <c r="E879" s="18"/>
     </row>
     <row r="880" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B880" s="11"/>
       <c r="D880" s="12"/>
-      <c r="E880" s="13"/>
+      <c r="E880" s="18"/>
     </row>
     <row r="881" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B881" s="11"/>
       <c r="D881" s="12"/>
-      <c r="E881" s="13"/>
+      <c r="E881" s="18"/>
     </row>
     <row r="882" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B882" s="11"/>
       <c r="D882" s="12"/>
-      <c r="E882" s="13"/>
+      <c r="E882" s="18"/>
     </row>
     <row r="883" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B883" s="11"/>
       <c r="D883" s="12"/>
-      <c r="E883" s="13"/>
+      <c r="E883" s="18"/>
     </row>
     <row r="884" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B884" s="11"/>
       <c r="D884" s="12"/>
-      <c r="E884" s="13"/>
+      <c r="E884" s="18"/>
     </row>
     <row r="885" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B885" s="11"/>
       <c r="D885" s="12"/>
-      <c r="E885" s="13"/>
+      <c r="E885" s="18"/>
     </row>
     <row r="886" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B886" s="11"/>
       <c r="D886" s="12"/>
-      <c r="E886" s="13"/>
+      <c r="E886" s="18"/>
     </row>
     <row r="887" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B887" s="11"/>
       <c r="D887" s="12"/>
-      <c r="E887" s="13"/>
+      <c r="E887" s="18"/>
     </row>
     <row r="888" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B888" s="11"/>
       <c r="D888" s="12"/>
-      <c r="E888" s="13"/>
+      <c r="E888" s="18"/>
     </row>
     <row r="889" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B889" s="11"/>
       <c r="D889" s="12"/>
-      <c r="E889" s="13"/>
+      <c r="E889" s="18"/>
     </row>
     <row r="890" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B890" s="11"/>
       <c r="D890" s="12"/>
-      <c r="E890" s="13"/>
+      <c r="E890" s="18"/>
     </row>
     <row r="891" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B891" s="11"/>
       <c r="D891" s="12"/>
-      <c r="E891" s="13"/>
+      <c r="E891" s="18"/>
     </row>
     <row r="892" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B892" s="11"/>
       <c r="D892" s="12"/>
-      <c r="E892" s="13"/>
+      <c r="E892" s="18"/>
     </row>
     <row r="893" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B893" s="11"/>
       <c r="D893" s="12"/>
-      <c r="E893" s="13"/>
+      <c r="E893" s="18"/>
     </row>
     <row r="894" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B894" s="11"/>
       <c r="D894" s="12"/>
-      <c r="E894" s="13"/>
+      <c r="E894" s="18"/>
     </row>
     <row r="895" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B895" s="11"/>
       <c r="D895" s="12"/>
-      <c r="E895" s="13"/>
+      <c r="E895" s="18"/>
     </row>
     <row r="896" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B896" s="11"/>
       <c r="D896" s="12"/>
-      <c r="E896" s="13"/>
+      <c r="E896" s="18"/>
     </row>
     <row r="897" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B897" s="11"/>
       <c r="D897" s="12"/>
-      <c r="E897" s="13"/>
+      <c r="E897" s="18"/>
     </row>
     <row r="898" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B898" s="11"/>
       <c r="D898" s="12"/>
-      <c r="E898" s="13"/>
+      <c r="E898" s="18"/>
     </row>
     <row r="899" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B899" s="11"/>
       <c r="D899" s="12"/>
-      <c r="E899" s="13"/>
+      <c r="E899" s="18"/>
     </row>
     <row r="900" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B900" s="11"/>
       <c r="D900" s="12"/>
-      <c r="E900" s="13"/>
+      <c r="E900" s="18"/>
     </row>
     <row r="901" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B901" s="11"/>
       <c r="D901" s="12"/>
-      <c r="E901" s="13"/>
+      <c r="E901" s="18"/>
     </row>
     <row r="902" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B902" s="11"/>
       <c r="D902" s="12"/>
-      <c r="E902" s="13"/>
+      <c r="E902" s="18"/>
     </row>
     <row r="903" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B903" s="11"/>
       <c r="D903" s="12"/>
-      <c r="E903" s="13"/>
+      <c r="E903" s="18"/>
     </row>
     <row r="904" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B904" s="11"/>
       <c r="D904" s="12"/>
-      <c r="E904" s="13"/>
+      <c r="E904" s="18"/>
     </row>
     <row r="905" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B905" s="11"/>
       <c r="D905" s="12"/>
-      <c r="E905" s="13"/>
+      <c r="E905" s="18"/>
     </row>
     <row r="906" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B906" s="11"/>
       <c r="D906" s="12"/>
-      <c r="E906" s="13"/>
+      <c r="E906" s="18"/>
     </row>
     <row r="907" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B907" s="11"/>
       <c r="D907" s="12"/>
-      <c r="E907" s="13"/>
+      <c r="E907" s="18"/>
     </row>
     <row r="908" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B908" s="11"/>
       <c r="D908" s="12"/>
-      <c r="E908" s="13"/>
+      <c r="E908" s="18"/>
     </row>
     <row r="909" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B909" s="11"/>
       <c r="D909" s="12"/>
-      <c r="E909" s="13"/>
+      <c r="E909" s="18"/>
     </row>
     <row r="910" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B910" s="11"/>
       <c r="D910" s="12"/>
-      <c r="E910" s="13"/>
+      <c r="E910" s="18"/>
     </row>
     <row r="911" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B911" s="11"/>
       <c r="D911" s="12"/>
-      <c r="E911" s="13"/>
+      <c r="E911" s="18"/>
     </row>
     <row r="912" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B912" s="11"/>
       <c r="D912" s="12"/>
-      <c r="E912" s="13"/>
+      <c r="E912" s="18"/>
     </row>
     <row r="913" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B913" s="11"/>
       <c r="D913" s="12"/>
-      <c r="E913" s="13"/>
+      <c r="E913" s="18"/>
     </row>
     <row r="914" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B914" s="11"/>
       <c r="D914" s="12"/>
-      <c r="E914" s="13"/>
+      <c r="E914" s="18"/>
     </row>
     <row r="915" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B915" s="11"/>
       <c r="D915" s="12"/>
-      <c r="E915" s="13"/>
+      <c r="E915" s="18"/>
     </row>
     <row r="916" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B916" s="11"/>
       <c r="D916" s="12"/>
-      <c r="E916" s="13"/>
+      <c r="E916" s="18"/>
     </row>
     <row r="917" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B917" s="11"/>
       <c r="D917" s="12"/>
-      <c r="E917" s="13"/>
+      <c r="E917" s="18"/>
     </row>
     <row r="918" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B918" s="11"/>
       <c r="D918" s="12"/>
-      <c r="E918" s="13"/>
+      <c r="E918" s="18"/>
     </row>
     <row r="919" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B919" s="11"/>
       <c r="D919" s="12"/>
-      <c r="E919" s="13"/>
+      <c r="E919" s="18"/>
     </row>
     <row r="920" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B920" s="11"/>
       <c r="D920" s="12"/>
-      <c r="E920" s="13"/>
+      <c r="E920" s="18"/>
     </row>
     <row r="921" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B921" s="11"/>
       <c r="D921" s="12"/>
-      <c r="E921" s="13"/>
+      <c r="E921" s="18"/>
     </row>
     <row r="922" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B922" s="11"/>
       <c r="D922" s="12"/>
-      <c r="E922" s="13"/>
+      <c r="E922" s="18"/>
     </row>
     <row r="923" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B923" s="11"/>
       <c r="D923" s="12"/>
-      <c r="E923" s="13"/>
+      <c r="E923" s="18"/>
     </row>
     <row r="924" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B924" s="11"/>
       <c r="D924" s="12"/>
-      <c r="E924" s="13"/>
+      <c r="E924" s="18"/>
     </row>
     <row r="925" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B925" s="11"/>
       <c r="D925" s="12"/>
-      <c r="E925" s="13"/>
+      <c r="E925" s="18"/>
     </row>
     <row r="926" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B926" s="11"/>
       <c r="D926" s="12"/>
-      <c r="E926" s="13"/>
+      <c r="E926" s="18"/>
     </row>
     <row r="927" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B927" s="11"/>
       <c r="D927" s="12"/>
-      <c r="E927" s="13"/>
+      <c r="E927" s="18"/>
     </row>
     <row r="928" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B928" s="11"/>
       <c r="D928" s="12"/>
-      <c r="E928" s="13"/>
+      <c r="E928" s="18"/>
     </row>
     <row r="929" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B929" s="11"/>
       <c r="D929" s="12"/>
-      <c r="E929" s="13"/>
+      <c r="E929" s="18"/>
     </row>
     <row r="930" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B930" s="11"/>
       <c r="D930" s="12"/>
-      <c r="E930" s="13"/>
+      <c r="E930" s="18"/>
     </row>
     <row r="931" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B931" s="11"/>
       <c r="D931" s="12"/>
-      <c r="E931" s="13"/>
+      <c r="E931" s="18"/>
     </row>
     <row r="932" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B932" s="11"/>
       <c r="D932" s="12"/>
-      <c r="E932" s="13"/>
+      <c r="E932" s="18"/>
     </row>
     <row r="933" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B933" s="11"/>
       <c r="D933" s="12"/>
-      <c r="E933" s="13"/>
+      <c r="E933" s="18"/>
     </row>
     <row r="934" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B934" s="11"/>
       <c r="D934" s="12"/>
-      <c r="E934" s="13"/>
+      <c r="E934" s="18"/>
     </row>
     <row r="935" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B935" s="11"/>
       <c r="D935" s="12"/>
-      <c r="E935" s="13"/>
+      <c r="E935" s="18"/>
     </row>
     <row r="936" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B936" s="11"/>
       <c r="D936" s="12"/>
-      <c r="E936" s="13"/>
+      <c r="E936" s="18"/>
     </row>
     <row r="937" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B937" s="11"/>
       <c r="D937" s="12"/>
-      <c r="E937" s="13"/>
+      <c r="E937" s="18"/>
     </row>
     <row r="938" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B938" s="11"/>
       <c r="D938" s="12"/>
-      <c r="E938" s="13"/>
+      <c r="E938" s="18"/>
     </row>
     <row r="939" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B939" s="11"/>
       <c r="D939" s="12"/>
-      <c r="E939" s="13"/>
+      <c r="E939" s="18"/>
     </row>
     <row r="940" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B940" s="11"/>
       <c r="D940" s="12"/>
-      <c r="E940" s="13"/>
+      <c r="E940" s="18"/>
     </row>
     <row r="941" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B941" s="11"/>
       <c r="D941" s="12"/>
-      <c r="E941" s="13"/>
+      <c r="E941" s="18"/>
     </row>
     <row r="942" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B942" s="11"/>
       <c r="D942" s="12"/>
-      <c r="E942" s="13"/>
+      <c r="E942" s="18"/>
     </row>
     <row r="943" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B943" s="11"/>
       <c r="D943" s="12"/>
-      <c r="E943" s="13"/>
+      <c r="E943" s="18"/>
     </row>
     <row r="944" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B944" s="11"/>
       <c r="D944" s="12"/>
-      <c r="E944" s="13"/>
+      <c r="E944" s="18"/>
     </row>
     <row r="945" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B945" s="11"/>
       <c r="D945" s="12"/>
-      <c r="E945" s="13"/>
+      <c r="E945" s="18"/>
     </row>
     <row r="946" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B946" s="11"/>
       <c r="D946" s="12"/>
-      <c r="E946" s="13"/>
+      <c r="E946" s="18"/>
     </row>
     <row r="947" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B947" s="11"/>
       <c r="D947" s="12"/>
-      <c r="E947" s="13"/>
+      <c r="E947" s="18"/>
     </row>
     <row r="948" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B948" s="11"/>
       <c r="D948" s="12"/>
-      <c r="E948" s="13"/>
+      <c r="E948" s="18"/>
     </row>
     <row r="949" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B949" s="11"/>
       <c r="D949" s="12"/>
-      <c r="E949" s="13"/>
+      <c r="E949" s="18"/>
     </row>
     <row r="950" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B950" s="11"/>
       <c r="D950" s="12"/>
-      <c r="E950" s="13"/>
+      <c r="E950" s="18"/>
     </row>
     <row r="951" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B951" s="11"/>
       <c r="D951" s="12"/>
-      <c r="E951" s="13"/>
+      <c r="E951" s="18"/>
     </row>
     <row r="952" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B952" s="11"/>
       <c r="D952" s="12"/>
-      <c r="E952" s="13"/>
+      <c r="E952" s="18"/>
     </row>
     <row r="953" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B953" s="11"/>
       <c r="D953" s="12"/>
-      <c r="E953" s="13"/>
+      <c r="E953" s="18"/>
     </row>
     <row r="954" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B954" s="11"/>
       <c r="D954" s="12"/>
-      <c r="E954" s="13"/>
+      <c r="E954" s="18"/>
     </row>
     <row r="955" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B955" s="11"/>
       <c r="D955" s="12"/>
-      <c r="E955" s="13"/>
+      <c r="E955" s="18"/>
     </row>
     <row r="956" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B956" s="11"/>
       <c r="D956" s="12"/>
-      <c r="E956" s="13"/>
+      <c r="E956" s="18"/>
     </row>
     <row r="957" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B957" s="11"/>
       <c r="D957" s="12"/>
-      <c r="E957" s="13"/>
+      <c r="E957" s="18"/>
     </row>
     <row r="958" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B958" s="11"/>
       <c r="D958" s="12"/>
-      <c r="E958" s="13"/>
+      <c r="E958" s="18"/>
     </row>
     <row r="959" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B959" s="11"/>
       <c r="D959" s="12"/>
-      <c r="E959" s="13"/>
+      <c r="E959" s="18"/>
     </row>
     <row r="960" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B960" s="11"/>
       <c r="D960" s="12"/>
-      <c r="E960" s="13"/>
+      <c r="E960" s="18"/>
     </row>
     <row r="961" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B961" s="11"/>
       <c r="D961" s="12"/>
-      <c r="E961" s="13"/>
+      <c r="E961" s="18"/>
     </row>
     <row r="962" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B962" s="11"/>
       <c r="D962" s="12"/>
-      <c r="E962" s="13"/>
+      <c r="E962" s="18"/>
     </row>
     <row r="963" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B963" s="11"/>
       <c r="D963" s="12"/>
-      <c r="E963" s="13"/>
+      <c r="E963" s="18"/>
     </row>
     <row r="964" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B964" s="11"/>
       <c r="D964" s="12"/>
-      <c r="E964" s="13"/>
+      <c r="E964" s="18"/>
     </row>
     <row r="965" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B965" s="11"/>
       <c r="D965" s="12"/>
-      <c r="E965" s="13"/>
+      <c r="E965" s="18"/>
     </row>
     <row r="966" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B966" s="11"/>
       <c r="D966" s="12"/>
-      <c r="E966" s="13"/>
+      <c r="E966" s="18"/>
     </row>
     <row r="967" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B967" s="11"/>
       <c r="D967" s="12"/>
-      <c r="E967" s="13"/>
+      <c r="E967" s="18"/>
     </row>
     <row r="968" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B968" s="11"/>
       <c r="D968" s="12"/>
-      <c r="E968" s="13"/>
+      <c r="E968" s="18"/>
     </row>
     <row r="969" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B969" s="11"/>
       <c r="D969" s="12"/>
-      <c r="E969" s="13"/>
+      <c r="E969" s="18"/>
     </row>
     <row r="970" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B970" s="11"/>
       <c r="D970" s="12"/>
-      <c r="E970" s="13"/>
+      <c r="E970" s="18"/>
     </row>
     <row r="971" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B971" s="11"/>
       <c r="D971" s="12"/>
-      <c r="E971" s="13"/>
+      <c r="E971" s="18"/>
     </row>
     <row r="972" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B972" s="11"/>
       <c r="D972" s="12"/>
-      <c r="E972" s="13"/>
+      <c r="E972" s="18"/>
     </row>
     <row r="973" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B973" s="11"/>
       <c r="D973" s="12"/>
-      <c r="E973" s="13"/>
+      <c r="E973" s="18"/>
     </row>
     <row r="974" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B974" s="11"/>
       <c r="D974" s="12"/>
-      <c r="E974" s="13"/>
+      <c r="E974" s="18"/>
     </row>
     <row r="975" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B975" s="11"/>
       <c r="D975" s="12"/>
-      <c r="E975" s="13"/>
+      <c r="E975" s="18"/>
     </row>
     <row r="976" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B976" s="11"/>
       <c r="D976" s="12"/>
-      <c r="E976" s="13"/>
+      <c r="E976" s="18"/>
     </row>
     <row r="977" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B977" s="11"/>
       <c r="D977" s="12"/>
-      <c r="E977" s="13"/>
+      <c r="E977" s="18"/>
     </row>
     <row r="978" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B978" s="11"/>
       <c r="D978" s="12"/>
-      <c r="E978" s="13"/>
+      <c r="E978" s="18"/>
     </row>
     <row r="979" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B979" s="11"/>
       <c r="D979" s="12"/>
-      <c r="E979" s="13"/>
+      <c r="E979" s="18"/>
     </row>
     <row r="980" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B980" s="11"/>
       <c r="D980" s="12"/>
-      <c r="E980" s="13"/>
+      <c r="E980" s="18"/>
     </row>
     <row r="981" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B981" s="11"/>
       <c r="D981" s="12"/>
-      <c r="E981" s="13"/>
+      <c r="E981" s="18"/>
     </row>
     <row r="982" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B982" s="11"/>
       <c r="D982" s="12"/>
-      <c r="E982" s="13"/>
+      <c r="E982" s="18"/>
     </row>
     <row r="983" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B983" s="11"/>
       <c r="D983" s="12"/>
-      <c r="E983" s="13"/>
+      <c r="E983" s="18"/>
     </row>
     <row r="984" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B984" s="11"/>
       <c r="D984" s="12"/>
-      <c r="E984" s="13"/>
+      <c r="E984" s="18"/>
     </row>
     <row r="985" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B985" s="11"/>
       <c r="D985" s="12"/>
-      <c r="E985" s="13"/>
+      <c r="E985" s="18"/>
     </row>
     <row r="986" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B986" s="11"/>
       <c r="D986" s="12"/>
-      <c r="E986" s="13"/>
+      <c r="E986" s="18"/>
     </row>
     <row r="987" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B987" s="11"/>
       <c r="D987" s="12"/>
-      <c r="E987" s="13"/>
+      <c r="E987" s="18"/>
     </row>
     <row r="988" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B988" s="11"/>
       <c r="D988" s="12"/>
-      <c r="E988" s="13"/>
+      <c r="E988" s="18"/>
     </row>
     <row r="989" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B989" s="11"/>
       <c r="D989" s="12"/>
-      <c r="E989" s="13"/>
+      <c r="E989" s="18"/>
     </row>
     <row r="990" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B990" s="11"/>
       <c r="D990" s="12"/>
-      <c r="E990" s="13"/>
+      <c r="E990" s="18"/>
     </row>
     <row r="991" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B991" s="11"/>
       <c r="D991" s="12"/>
-      <c r="E991" s="13"/>
+      <c r="E991" s="18"/>
     </row>
     <row r="992" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B992" s="11"/>
       <c r="D992" s="12"/>
-      <c r="E992" s="13"/>
+      <c r="E992" s="18"/>
     </row>
     <row r="993" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B993" s="11"/>
       <c r="D993" s="12"/>
-      <c r="E993" s="13"/>
+      <c r="E993" s="18"/>
     </row>
     <row r="994" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B994" s="11"/>
       <c r="D994" s="12"/>
-      <c r="E994" s="13"/>
+      <c r="E994" s="18"/>
     </row>
     <row r="995" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B995" s="11"/>
       <c r="D995" s="12"/>
-      <c r="E995" s="13"/>
+      <c r="E995" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
